--- a/Language.xlsx
+++ b/Language.xlsx
@@ -605,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1645"/>
+  <dimension ref="A1:D2431"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
@@ -16122,1002 +16122,8862 @@
       </c>
     </row>
     <row r="1546">
-      <c r="A1546" t="n">
+      <c r="A1546" s="0" t="n">
         <v>1542</v>
       </c>
-      <c r="B1546" t="inlineStr">
+      <c r="B1546" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1542</t>
         </is>
       </c>
     </row>
     <row r="1547">
-      <c r="A1547" t="n">
+      <c r="A1547" s="0" t="n">
         <v>1543</v>
       </c>
-      <c r="B1547" t="inlineStr">
+      <c r="B1547" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1543</t>
         </is>
       </c>
     </row>
     <row r="1548">
-      <c r="A1548" t="n">
+      <c r="A1548" s="0" t="n">
         <v>1544</v>
       </c>
-      <c r="B1548" t="inlineStr">
+      <c r="B1548" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1544</t>
         </is>
       </c>
     </row>
     <row r="1549">
-      <c r="A1549" t="n">
+      <c r="A1549" s="0" t="n">
         <v>1545</v>
       </c>
-      <c r="B1549" t="inlineStr">
+      <c r="B1549" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1545</t>
         </is>
       </c>
     </row>
     <row r="1550">
-      <c r="A1550" t="n">
+      <c r="A1550" s="0" t="n">
         <v>1546</v>
       </c>
-      <c r="B1550" t="inlineStr">
+      <c r="B1550" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1546</t>
         </is>
       </c>
     </row>
     <row r="1551">
-      <c r="A1551" t="n">
+      <c r="A1551" s="0" t="n">
         <v>1547</v>
       </c>
-      <c r="B1551" t="inlineStr">
+      <c r="B1551" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1547</t>
         </is>
       </c>
     </row>
     <row r="1552">
-      <c r="A1552" t="n">
+      <c r="A1552" s="0" t="n">
         <v>1548</v>
       </c>
-      <c r="B1552" t="inlineStr">
+      <c r="B1552" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1548</t>
         </is>
       </c>
     </row>
     <row r="1553">
-      <c r="A1553" t="n">
+      <c r="A1553" s="0" t="n">
         <v>1549</v>
       </c>
-      <c r="B1553" t="inlineStr">
+      <c r="B1553" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1549</t>
         </is>
       </c>
     </row>
     <row r="1554">
-      <c r="A1554" t="n">
+      <c r="A1554" s="0" t="n">
         <v>1550</v>
       </c>
-      <c r="B1554" t="inlineStr">
+      <c r="B1554" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1550</t>
         </is>
       </c>
     </row>
     <row r="1555">
-      <c r="A1555" t="n">
+      <c r="A1555" s="0" t="n">
         <v>1551</v>
       </c>
-      <c r="B1555" t="inlineStr">
+      <c r="B1555" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1551</t>
         </is>
       </c>
     </row>
     <row r="1556">
-      <c r="A1556" t="n">
+      <c r="A1556" s="0" t="n">
         <v>1552</v>
       </c>
-      <c r="B1556" t="inlineStr">
+      <c r="B1556" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1552</t>
         </is>
       </c>
     </row>
     <row r="1557">
-      <c r="A1557" t="n">
+      <c r="A1557" s="0" t="n">
         <v>1553</v>
       </c>
-      <c r="B1557" t="inlineStr">
+      <c r="B1557" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1553</t>
         </is>
       </c>
     </row>
     <row r="1558">
-      <c r="A1558" t="n">
+      <c r="A1558" s="0" t="n">
         <v>1554</v>
       </c>
-      <c r="B1558" t="inlineStr">
+      <c r="B1558" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1554</t>
         </is>
       </c>
     </row>
     <row r="1559">
-      <c r="A1559" t="n">
+      <c r="A1559" s="0" t="n">
         <v>1555</v>
       </c>
-      <c r="B1559" t="inlineStr">
+      <c r="B1559" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1555</t>
         </is>
       </c>
     </row>
     <row r="1560">
-      <c r="A1560" t="n">
+      <c r="A1560" s="0" t="n">
         <v>1556</v>
       </c>
-      <c r="B1560" t="inlineStr">
+      <c r="B1560" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1556</t>
         </is>
       </c>
     </row>
     <row r="1561">
-      <c r="A1561" t="n">
+      <c r="A1561" s="0" t="n">
         <v>1557</v>
       </c>
-      <c r="B1561" t="inlineStr">
+      <c r="B1561" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1557</t>
         </is>
       </c>
     </row>
     <row r="1562">
-      <c r="A1562" t="n">
+      <c r="A1562" s="0" t="n">
         <v>1558</v>
       </c>
-      <c r="B1562" t="inlineStr">
+      <c r="B1562" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1558</t>
         </is>
       </c>
     </row>
     <row r="1563">
-      <c r="A1563" t="n">
+      <c r="A1563" s="0" t="n">
         <v>1559</v>
       </c>
-      <c r="B1563" t="inlineStr">
+      <c r="B1563" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1559</t>
         </is>
       </c>
     </row>
     <row r="1564">
-      <c r="A1564" t="n">
+      <c r="A1564" s="0" t="n">
         <v>1560</v>
       </c>
-      <c r="B1564" t="inlineStr">
+      <c r="B1564" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1560</t>
         </is>
       </c>
     </row>
     <row r="1565">
-      <c r="A1565" t="n">
+      <c r="A1565" s="0" t="n">
         <v>1561</v>
       </c>
-      <c r="B1565" t="inlineStr">
+      <c r="B1565" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1561</t>
         </is>
       </c>
     </row>
     <row r="1566">
-      <c r="A1566" t="n">
+      <c r="A1566" s="0" t="n">
         <v>1562</v>
       </c>
-      <c r="B1566" t="inlineStr">
+      <c r="B1566" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1562</t>
         </is>
       </c>
     </row>
     <row r="1567">
-      <c r="A1567" t="n">
+      <c r="A1567" s="0" t="n">
         <v>1563</v>
       </c>
-      <c r="B1567" t="inlineStr">
+      <c r="B1567" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1563</t>
         </is>
       </c>
     </row>
     <row r="1568">
-      <c r="A1568" t="n">
+      <c r="A1568" s="0" t="n">
         <v>1564</v>
       </c>
-      <c r="B1568" t="inlineStr">
+      <c r="B1568" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1564</t>
         </is>
       </c>
     </row>
     <row r="1569">
-      <c r="A1569" t="n">
+      <c r="A1569" s="0" t="n">
         <v>1565</v>
       </c>
-      <c r="B1569" t="inlineStr">
+      <c r="B1569" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1565</t>
         </is>
       </c>
     </row>
     <row r="1570">
-      <c r="A1570" t="n">
+      <c r="A1570" s="0" t="n">
         <v>1566</v>
       </c>
-      <c r="B1570" t="inlineStr">
+      <c r="B1570" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1566</t>
         </is>
       </c>
     </row>
     <row r="1571">
-      <c r="A1571" t="n">
+      <c r="A1571" s="0" t="n">
         <v>1567</v>
       </c>
-      <c r="B1571" t="inlineStr">
+      <c r="B1571" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1567</t>
         </is>
       </c>
     </row>
     <row r="1572">
-      <c r="A1572" t="n">
+      <c r="A1572" s="0" t="n">
         <v>1568</v>
       </c>
-      <c r="B1572" t="inlineStr">
+      <c r="B1572" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1568</t>
         </is>
       </c>
     </row>
     <row r="1573">
-      <c r="A1573" t="n">
+      <c r="A1573" s="0" t="n">
         <v>1569</v>
       </c>
-      <c r="B1573" t="inlineStr">
+      <c r="B1573" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1569</t>
         </is>
       </c>
     </row>
     <row r="1574">
-      <c r="A1574" t="n">
+      <c r="A1574" s="0" t="n">
         <v>1570</v>
       </c>
-      <c r="B1574" t="inlineStr">
+      <c r="B1574" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1570</t>
         </is>
       </c>
     </row>
     <row r="1575">
-      <c r="A1575" t="n">
+      <c r="A1575" s="0" t="n">
         <v>1571</v>
       </c>
-      <c r="B1575" t="inlineStr">
+      <c r="B1575" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1571</t>
         </is>
       </c>
     </row>
     <row r="1576">
-      <c r="A1576" t="n">
+      <c r="A1576" s="0" t="n">
         <v>1572</v>
       </c>
-      <c r="B1576" t="inlineStr">
+      <c r="B1576" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1572</t>
         </is>
       </c>
     </row>
     <row r="1577">
-      <c r="A1577" t="n">
+      <c r="A1577" s="0" t="n">
         <v>1573</v>
       </c>
-      <c r="B1577" t="inlineStr">
+      <c r="B1577" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1573</t>
         </is>
       </c>
     </row>
     <row r="1578">
-      <c r="A1578" t="n">
+      <c r="A1578" s="0" t="n">
         <v>1574</v>
       </c>
-      <c r="B1578" t="inlineStr">
+      <c r="B1578" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1574</t>
         </is>
       </c>
     </row>
     <row r="1579">
-      <c r="A1579" t="n">
+      <c r="A1579" s="0" t="n">
         <v>1575</v>
       </c>
-      <c r="B1579" t="inlineStr">
+      <c r="B1579" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1575</t>
         </is>
       </c>
     </row>
     <row r="1580">
-      <c r="A1580" t="n">
+      <c r="A1580" s="0" t="n">
         <v>1576</v>
       </c>
-      <c r="B1580" t="inlineStr">
+      <c r="B1580" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1576</t>
         </is>
       </c>
     </row>
     <row r="1581">
-      <c r="A1581" t="n">
+      <c r="A1581" s="0" t="n">
         <v>1577</v>
       </c>
-      <c r="B1581" t="inlineStr">
+      <c r="B1581" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1577</t>
         </is>
       </c>
     </row>
     <row r="1582">
-      <c r="A1582" t="n">
+      <c r="A1582" s="0" t="n">
         <v>1578</v>
       </c>
-      <c r="B1582" t="inlineStr">
+      <c r="B1582" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1578</t>
         </is>
       </c>
     </row>
     <row r="1583">
-      <c r="A1583" t="n">
+      <c r="A1583" s="0" t="n">
         <v>1579</v>
       </c>
-      <c r="B1583" t="inlineStr">
+      <c r="B1583" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1579</t>
         </is>
       </c>
     </row>
     <row r="1584">
-      <c r="A1584" t="n">
+      <c r="A1584" s="0" t="n">
         <v>1580</v>
       </c>
-      <c r="B1584" t="inlineStr">
+      <c r="B1584" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1580</t>
         </is>
       </c>
     </row>
     <row r="1585">
-      <c r="A1585" t="n">
+      <c r="A1585" s="0" t="n">
         <v>1581</v>
       </c>
-      <c r="B1585" t="inlineStr">
+      <c r="B1585" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1581</t>
         </is>
       </c>
     </row>
     <row r="1586">
-      <c r="A1586" t="n">
+      <c r="A1586" s="0" t="n">
         <v>1582</v>
       </c>
-      <c r="B1586" t="inlineStr">
+      <c r="B1586" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1582</t>
         </is>
       </c>
     </row>
     <row r="1587">
-      <c r="A1587" t="n">
+      <c r="A1587" s="0" t="n">
         <v>1583</v>
       </c>
-      <c r="B1587" t="inlineStr">
+      <c r="B1587" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1583</t>
         </is>
       </c>
     </row>
     <row r="1588">
-      <c r="A1588" t="n">
+      <c r="A1588" s="0" t="n">
         <v>1584</v>
       </c>
-      <c r="B1588" t="inlineStr">
+      <c r="B1588" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1584</t>
         </is>
       </c>
     </row>
     <row r="1589">
-      <c r="A1589" t="n">
+      <c r="A1589" s="0" t="n">
         <v>1585</v>
       </c>
-      <c r="B1589" t="inlineStr">
+      <c r="B1589" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1585</t>
         </is>
       </c>
     </row>
     <row r="1590">
-      <c r="A1590" t="n">
+      <c r="A1590" s="0" t="n">
         <v>1586</v>
       </c>
-      <c r="B1590" t="inlineStr">
+      <c r="B1590" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1586</t>
         </is>
       </c>
     </row>
     <row r="1591">
-      <c r="A1591" t="n">
+      <c r="A1591" s="0" t="n">
         <v>1587</v>
       </c>
-      <c r="B1591" t="inlineStr">
+      <c r="B1591" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1587</t>
         </is>
       </c>
     </row>
     <row r="1592">
-      <c r="A1592" t="n">
+      <c r="A1592" s="0" t="n">
         <v>1588</v>
       </c>
-      <c r="B1592" t="inlineStr">
+      <c r="B1592" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1588</t>
         </is>
       </c>
     </row>
     <row r="1593">
-      <c r="A1593" t="n">
+      <c r="A1593" s="0" t="n">
         <v>1589</v>
       </c>
-      <c r="B1593" t="inlineStr">
+      <c r="B1593" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1589</t>
         </is>
       </c>
     </row>
     <row r="1594">
-      <c r="A1594" t="n">
+      <c r="A1594" s="0" t="n">
         <v>1590</v>
       </c>
-      <c r="B1594" t="inlineStr">
+      <c r="B1594" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1590</t>
         </is>
       </c>
     </row>
     <row r="1595">
-      <c r="A1595" t="n">
+      <c r="A1595" s="0" t="n">
         <v>1591</v>
       </c>
-      <c r="B1595" t="inlineStr">
+      <c r="B1595" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1591</t>
         </is>
       </c>
     </row>
     <row r="1596">
-      <c r="A1596" t="n">
+      <c r="A1596" s="0" t="n">
         <v>1592</v>
       </c>
-      <c r="B1596" t="inlineStr">
+      <c r="B1596" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1592</t>
         </is>
       </c>
     </row>
     <row r="1597">
-      <c r="A1597" t="n">
+      <c r="A1597" s="0" t="n">
         <v>1593</v>
       </c>
-      <c r="B1597" t="inlineStr">
+      <c r="B1597" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1593</t>
         </is>
       </c>
     </row>
     <row r="1598">
-      <c r="A1598" t="n">
+      <c r="A1598" s="0" t="n">
         <v>1594</v>
       </c>
-      <c r="B1598" t="inlineStr">
+      <c r="B1598" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1594</t>
         </is>
       </c>
     </row>
     <row r="1599">
-      <c r="A1599" t="n">
+      <c r="A1599" s="0" t="n">
         <v>1595</v>
       </c>
-      <c r="B1599" t="inlineStr">
+      <c r="B1599" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1595</t>
         </is>
       </c>
     </row>
     <row r="1600">
-      <c r="A1600" t="n">
+      <c r="A1600" s="0" t="n">
         <v>1596</v>
       </c>
-      <c r="B1600" t="inlineStr">
+      <c r="B1600" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1596</t>
         </is>
       </c>
     </row>
     <row r="1601">
-      <c r="A1601" t="n">
+      <c r="A1601" s="0" t="n">
         <v>1597</v>
       </c>
-      <c r="B1601" t="inlineStr">
+      <c r="B1601" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1597</t>
         </is>
       </c>
     </row>
     <row r="1602">
-      <c r="A1602" t="n">
+      <c r="A1602" s="0" t="n">
         <v>1598</v>
       </c>
-      <c r="B1602" t="inlineStr">
+      <c r="B1602" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1598</t>
         </is>
       </c>
     </row>
     <row r="1603">
-      <c r="A1603" t="n">
+      <c r="A1603" s="0" t="n">
         <v>1599</v>
       </c>
-      <c r="B1603" t="inlineStr">
+      <c r="B1603" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1599</t>
         </is>
       </c>
     </row>
     <row r="1604">
-      <c r="A1604" t="n">
+      <c r="A1604" s="0" t="n">
         <v>1600</v>
       </c>
-      <c r="B1604" t="inlineStr">
+      <c r="B1604" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1600</t>
         </is>
       </c>
     </row>
     <row r="1605">
-      <c r="A1605" t="n">
+      <c r="A1605" s="0" t="n">
         <v>1601</v>
       </c>
-      <c r="B1605" t="inlineStr">
+      <c r="B1605" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1601</t>
         </is>
       </c>
     </row>
     <row r="1606">
-      <c r="A1606" t="n">
+      <c r="A1606" s="0" t="n">
         <v>1602</v>
       </c>
-      <c r="B1606" t="inlineStr">
+      <c r="B1606" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1602</t>
         </is>
       </c>
     </row>
     <row r="1607">
-      <c r="A1607" t="n">
+      <c r="A1607" s="0" t="n">
         <v>1603</v>
       </c>
-      <c r="B1607" t="inlineStr">
+      <c r="B1607" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1603</t>
         </is>
       </c>
     </row>
     <row r="1608">
-      <c r="A1608" t="n">
+      <c r="A1608" s="0" t="n">
         <v>1604</v>
       </c>
-      <c r="B1608" t="inlineStr">
+      <c r="B1608" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1604</t>
         </is>
       </c>
     </row>
     <row r="1609">
-      <c r="A1609" t="n">
+      <c r="A1609" s="0" t="n">
         <v>1605</v>
       </c>
-      <c r="B1609" t="inlineStr">
+      <c r="B1609" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1605</t>
         </is>
       </c>
     </row>
     <row r="1610">
-      <c r="A1610" t="n">
+      <c r="A1610" s="0" t="n">
         <v>1606</v>
       </c>
-      <c r="B1610" t="inlineStr">
+      <c r="B1610" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1606</t>
         </is>
       </c>
     </row>
     <row r="1611">
-      <c r="A1611" t="n">
+      <c r="A1611" s="0" t="n">
         <v>1607</v>
       </c>
-      <c r="B1611" t="inlineStr">
+      <c r="B1611" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1607</t>
         </is>
       </c>
     </row>
     <row r="1612">
-      <c r="A1612" t="n">
+      <c r="A1612" s="0" t="n">
         <v>1608</v>
       </c>
-      <c r="B1612" t="inlineStr">
+      <c r="B1612" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1608</t>
         </is>
       </c>
     </row>
     <row r="1613">
-      <c r="A1613" t="n">
+      <c r="A1613" s="0" t="n">
         <v>1609</v>
       </c>
-      <c r="B1613" t="inlineStr">
+      <c r="B1613" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1609</t>
         </is>
       </c>
     </row>
     <row r="1614">
-      <c r="A1614" t="n">
+      <c r="A1614" s="0" t="n">
         <v>1610</v>
       </c>
-      <c r="B1614" t="inlineStr">
+      <c r="B1614" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1610</t>
         </is>
       </c>
     </row>
     <row r="1615">
-      <c r="A1615" t="n">
+      <c r="A1615" s="0" t="n">
         <v>1611</v>
       </c>
-      <c r="B1615" t="inlineStr">
+      <c r="B1615" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1611</t>
         </is>
       </c>
     </row>
     <row r="1616">
-      <c r="A1616" t="n">
+      <c r="A1616" s="0" t="n">
         <v>1612</v>
       </c>
-      <c r="B1616" t="inlineStr">
+      <c r="B1616" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1612</t>
         </is>
       </c>
     </row>
     <row r="1617">
-      <c r="A1617" t="n">
+      <c r="A1617" s="0" t="n">
         <v>1613</v>
       </c>
-      <c r="B1617" t="inlineStr">
+      <c r="B1617" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1613</t>
         </is>
       </c>
     </row>
     <row r="1618">
-      <c r="A1618" t="n">
+      <c r="A1618" s="0" t="n">
         <v>1614</v>
       </c>
-      <c r="B1618" t="inlineStr">
+      <c r="B1618" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1614</t>
         </is>
       </c>
     </row>
     <row r="1619">
-      <c r="A1619" t="n">
+      <c r="A1619" s="0" t="n">
         <v>1615</v>
       </c>
-      <c r="B1619" t="inlineStr">
+      <c r="B1619" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1615</t>
         </is>
       </c>
     </row>
     <row r="1620">
-      <c r="A1620" t="n">
+      <c r="A1620" s="0" t="n">
         <v>1616</v>
       </c>
-      <c r="B1620" t="inlineStr">
+      <c r="B1620" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1616</t>
         </is>
       </c>
     </row>
     <row r="1621">
-      <c r="A1621" t="n">
+      <c r="A1621" s="0" t="n">
         <v>1617</v>
       </c>
-      <c r="B1621" t="inlineStr">
+      <c r="B1621" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1617</t>
         </is>
       </c>
     </row>
     <row r="1622">
-      <c r="A1622" t="n">
+      <c r="A1622" s="0" t="n">
         <v>1618</v>
       </c>
-      <c r="B1622" t="inlineStr">
+      <c r="B1622" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1618</t>
         </is>
       </c>
     </row>
     <row r="1623">
-      <c r="A1623" t="n">
+      <c r="A1623" s="0" t="n">
         <v>1619</v>
       </c>
-      <c r="B1623" t="inlineStr">
+      <c r="B1623" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1619</t>
         </is>
       </c>
     </row>
     <row r="1624">
-      <c r="A1624" t="n">
+      <c r="A1624" s="0" t="n">
         <v>1620</v>
       </c>
-      <c r="B1624" t="inlineStr">
+      <c r="B1624" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1620</t>
         </is>
       </c>
     </row>
     <row r="1625">
-      <c r="A1625" t="n">
+      <c r="A1625" s="0" t="n">
         <v>1621</v>
       </c>
-      <c r="B1625" t="inlineStr">
+      <c r="B1625" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1621</t>
         </is>
       </c>
     </row>
     <row r="1626">
-      <c r="A1626" t="n">
+      <c r="A1626" s="0" t="n">
         <v>1622</v>
       </c>
-      <c r="B1626" t="inlineStr">
+      <c r="B1626" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1622</t>
         </is>
       </c>
     </row>
     <row r="1627">
-      <c r="A1627" t="n">
+      <c r="A1627" s="0" t="n">
         <v>1623</v>
       </c>
-      <c r="B1627" t="inlineStr">
+      <c r="B1627" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1623</t>
         </is>
       </c>
     </row>
     <row r="1628">
-      <c r="A1628" t="n">
+      <c r="A1628" s="0" t="n">
         <v>1624</v>
       </c>
-      <c r="B1628" t="inlineStr">
+      <c r="B1628" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1624</t>
         </is>
       </c>
     </row>
     <row r="1629">
-      <c r="A1629" t="n">
+      <c r="A1629" s="0" t="n">
         <v>1625</v>
       </c>
-      <c r="B1629" t="inlineStr">
+      <c r="B1629" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1625</t>
         </is>
       </c>
     </row>
     <row r="1630">
-      <c r="A1630" t="n">
+      <c r="A1630" s="0" t="n">
         <v>1626</v>
       </c>
-      <c r="B1630" t="inlineStr">
+      <c r="B1630" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1626</t>
         </is>
       </c>
     </row>
     <row r="1631">
-      <c r="A1631" t="n">
+      <c r="A1631" s="0" t="n">
         <v>1627</v>
       </c>
-      <c r="B1631" t="inlineStr">
+      <c r="B1631" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1627</t>
         </is>
       </c>
     </row>
     <row r="1632">
-      <c r="A1632" t="n">
+      <c r="A1632" s="0" t="n">
         <v>1628</v>
       </c>
-      <c r="B1632" t="inlineStr">
+      <c r="B1632" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1628</t>
         </is>
       </c>
     </row>
     <row r="1633">
-      <c r="A1633" t="n">
+      <c r="A1633" s="0" t="n">
         <v>1629</v>
       </c>
-      <c r="B1633" t="inlineStr">
+      <c r="B1633" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1629</t>
         </is>
       </c>
     </row>
     <row r="1634">
-      <c r="A1634" t="n">
+      <c r="A1634" s="0" t="n">
         <v>1630</v>
       </c>
-      <c r="B1634" t="inlineStr">
+      <c r="B1634" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1630</t>
         </is>
       </c>
     </row>
     <row r="1635">
-      <c r="A1635" t="n">
+      <c r="A1635" s="0" t="n">
         <v>1631</v>
       </c>
-      <c r="B1635" t="inlineStr">
+      <c r="B1635" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1631</t>
         </is>
       </c>
     </row>
     <row r="1636">
-      <c r="A1636" t="n">
+      <c r="A1636" s="0" t="n">
         <v>1632</v>
       </c>
-      <c r="B1636" t="inlineStr">
+      <c r="B1636" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1632</t>
         </is>
       </c>
     </row>
     <row r="1637">
-      <c r="A1637" t="n">
+      <c r="A1637" s="0" t="n">
         <v>1633</v>
       </c>
-      <c r="B1637" t="inlineStr">
+      <c r="B1637" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1633</t>
         </is>
       </c>
     </row>
     <row r="1638">
-      <c r="A1638" t="n">
+      <c r="A1638" s="0" t="n">
         <v>1634</v>
       </c>
-      <c r="B1638" t="inlineStr">
+      <c r="B1638" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1634</t>
         </is>
       </c>
     </row>
     <row r="1639">
-      <c r="A1639" t="n">
+      <c r="A1639" s="0" t="n">
         <v>1635</v>
       </c>
-      <c r="B1639" t="inlineStr">
+      <c r="B1639" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1635</t>
         </is>
       </c>
     </row>
     <row r="1640">
-      <c r="A1640" t="n">
+      <c r="A1640" s="0" t="n">
         <v>1636</v>
       </c>
-      <c r="B1640" t="inlineStr">
+      <c r="B1640" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1636</t>
         </is>
       </c>
     </row>
     <row r="1641">
-      <c r="A1641" t="n">
+      <c r="A1641" s="0" t="n">
         <v>1637</v>
       </c>
-      <c r="B1641" t="inlineStr">
+      <c r="B1641" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1637</t>
         </is>
       </c>
     </row>
     <row r="1642">
-      <c r="A1642" t="n">
+      <c r="A1642" s="0" t="n">
         <v>1638</v>
       </c>
-      <c r="B1642" t="inlineStr">
+      <c r="B1642" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1638</t>
         </is>
       </c>
     </row>
     <row r="1643">
-      <c r="A1643" t="n">
+      <c r="A1643" s="0" t="n">
         <v>1639</v>
       </c>
-      <c r="B1643" t="inlineStr">
+      <c r="B1643" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1639</t>
         </is>
       </c>
     </row>
     <row r="1644">
-      <c r="A1644" t="n">
+      <c r="A1644" s="0" t="n">
         <v>1640</v>
       </c>
-      <c r="B1644" t="inlineStr">
+      <c r="B1644" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1640</t>
         </is>
       </c>
     </row>
     <row r="1645">
-      <c r="A1645" t="n">
+      <c r="A1645" s="0" t="n">
         <v>1641</v>
       </c>
-      <c r="B1645" t="inlineStr">
+      <c r="B1645" s="0" t="inlineStr">
         <is>
           <t>form.username.data 1641</t>
+        </is>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" s="0" t="n">
+        <v>1642</v>
+      </c>
+      <c r="B1646" s="0" t="inlineStr">
+        <is>
+          <t>charles</t>
+        </is>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" s="0" t="n">
+        <v>1643</v>
+      </c>
+      <c r="B1647" s="0" t="inlineStr">
+        <is>
+          <t>charles2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" s="0" t="n">
+        <v>1644</v>
+      </c>
+      <c r="B1648" s="0" t="inlineStr">
+        <is>
+          <t>charles23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" s="0" t="n">
+        <v>1645</v>
+      </c>
+      <c r="B1649" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1645</t>
+        </is>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" s="0" t="n">
+        <v>1646</v>
+      </c>
+      <c r="B1650" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1646</t>
+        </is>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" s="0" t="n">
+        <v>1647</v>
+      </c>
+      <c r="B1651" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1647</t>
+        </is>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" s="0" t="n">
+        <v>1648</v>
+      </c>
+      <c r="B1652" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1648</t>
+        </is>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" s="0" t="n">
+        <v>1649</v>
+      </c>
+      <c r="B1653" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1649</t>
+        </is>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" s="0" t="n">
+        <v>1650</v>
+      </c>
+      <c r="B1654" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1650</t>
+        </is>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" s="0" t="n">
+        <v>1651</v>
+      </c>
+      <c r="B1655" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1651</t>
+        </is>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" s="0" t="n">
+        <v>1652</v>
+      </c>
+      <c r="B1656" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1652</t>
+        </is>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" s="0" t="n">
+        <v>1653</v>
+      </c>
+      <c r="B1657" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1653</t>
+        </is>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" s="0" t="n">
+        <v>1654</v>
+      </c>
+      <c r="B1658" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1654</t>
+        </is>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" s="0" t="n">
+        <v>1655</v>
+      </c>
+      <c r="B1659" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1655</t>
+        </is>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" s="0" t="n">
+        <v>1656</v>
+      </c>
+      <c r="B1660" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1656</t>
+        </is>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" s="0" t="n">
+        <v>1657</v>
+      </c>
+      <c r="B1661" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1657</t>
+        </is>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" s="0" t="n">
+        <v>1658</v>
+      </c>
+      <c r="B1662" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1658</t>
+        </is>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" s="0" t="n">
+        <v>1659</v>
+      </c>
+      <c r="B1663" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1659</t>
+        </is>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" s="0" t="n">
+        <v>1660</v>
+      </c>
+      <c r="B1664" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1660</t>
+        </is>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" s="0" t="n">
+        <v>1661</v>
+      </c>
+      <c r="B1665" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1661</t>
+        </is>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" s="0" t="n">
+        <v>1662</v>
+      </c>
+      <c r="B1666" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1662</t>
+        </is>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" s="0" t="n">
+        <v>1663</v>
+      </c>
+      <c r="B1667" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1663</t>
+        </is>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" s="0" t="n">
+        <v>1664</v>
+      </c>
+      <c r="B1668" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1664</t>
+        </is>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" s="0" t="n">
+        <v>1665</v>
+      </c>
+      <c r="B1669" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1665</t>
+        </is>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" s="0" t="n">
+        <v>1666</v>
+      </c>
+      <c r="B1670" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1666</t>
+        </is>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" s="0" t="n">
+        <v>1667</v>
+      </c>
+      <c r="B1671" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1667</t>
+        </is>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" s="0" t="n">
+        <v>1668</v>
+      </c>
+      <c r="B1672" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1668</t>
+        </is>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" s="0" t="n">
+        <v>1669</v>
+      </c>
+      <c r="B1673" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1669</t>
+        </is>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" s="0" t="n">
+        <v>1670</v>
+      </c>
+      <c r="B1674" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1670</t>
+        </is>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" s="0" t="n">
+        <v>1671</v>
+      </c>
+      <c r="B1675" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1671</t>
+        </is>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" s="0" t="n">
+        <v>1672</v>
+      </c>
+      <c r="B1676" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1672</t>
+        </is>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" s="0" t="n">
+        <v>1673</v>
+      </c>
+      <c r="B1677" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1673</t>
+        </is>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" s="0" t="n">
+        <v>1674</v>
+      </c>
+      <c r="B1678" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1674</t>
+        </is>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" s="0" t="n">
+        <v>1675</v>
+      </c>
+      <c r="B1679" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1675</t>
+        </is>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" s="0" t="n">
+        <v>1676</v>
+      </c>
+      <c r="B1680" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1676</t>
+        </is>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" s="0" t="n">
+        <v>1677</v>
+      </c>
+      <c r="B1681" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1677</t>
+        </is>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" s="0" t="n">
+        <v>1678</v>
+      </c>
+      <c r="B1682" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1678</t>
+        </is>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" s="0" t="n">
+        <v>1679</v>
+      </c>
+      <c r="B1683" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1679</t>
+        </is>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" s="0" t="n">
+        <v>1680</v>
+      </c>
+      <c r="B1684" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1680</t>
+        </is>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" s="0" t="n">
+        <v>1681</v>
+      </c>
+      <c r="B1685" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1681</t>
+        </is>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" s="0" t="n">
+        <v>1682</v>
+      </c>
+      <c r="B1686" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1682</t>
+        </is>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" s="0" t="n">
+        <v>1683</v>
+      </c>
+      <c r="B1687" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1683</t>
+        </is>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" s="0" t="n">
+        <v>1684</v>
+      </c>
+      <c r="B1688" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1684</t>
+        </is>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" s="0" t="n">
+        <v>1685</v>
+      </c>
+      <c r="B1689" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1685</t>
+        </is>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" s="0" t="n">
+        <v>1686</v>
+      </c>
+      <c r="B1690" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1686</t>
+        </is>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" s="0" t="n">
+        <v>1687</v>
+      </c>
+      <c r="B1691" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1687</t>
+        </is>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" s="0" t="n">
+        <v>1688</v>
+      </c>
+      <c r="B1692" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1688</t>
+        </is>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" s="0" t="n">
+        <v>1689</v>
+      </c>
+      <c r="B1693" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1689</t>
+        </is>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" s="0" t="n">
+        <v>1690</v>
+      </c>
+      <c r="B1694" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1690</t>
+        </is>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" s="0" t="n">
+        <v>1691</v>
+      </c>
+      <c r="B1695" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1691</t>
+        </is>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" s="0" t="n">
+        <v>1692</v>
+      </c>
+      <c r="B1696" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1692</t>
+        </is>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" s="0" t="n">
+        <v>1693</v>
+      </c>
+      <c r="B1697" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1693</t>
+        </is>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" s="0" t="n">
+        <v>1694</v>
+      </c>
+      <c r="B1698" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1694</t>
+        </is>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="0" t="n">
+        <v>1695</v>
+      </c>
+      <c r="B1699" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1695</t>
+        </is>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" s="0" t="n">
+        <v>1696</v>
+      </c>
+      <c r="B1700" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1696</t>
+        </is>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" s="0" t="n">
+        <v>1697</v>
+      </c>
+      <c r="B1701" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1697</t>
+        </is>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" s="0" t="n">
+        <v>1698</v>
+      </c>
+      <c r="B1702" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1698</t>
+        </is>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" s="0" t="n">
+        <v>1699</v>
+      </c>
+      <c r="B1703" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1699</t>
+        </is>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="0" t="n">
+        <v>1700</v>
+      </c>
+      <c r="B1704" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1700</t>
+        </is>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="0" t="n">
+        <v>1701</v>
+      </c>
+      <c r="B1705" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1701</t>
+        </is>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" s="0" t="n">
+        <v>1702</v>
+      </c>
+      <c r="B1706" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1702</t>
+        </is>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" s="0" t="n">
+        <v>1703</v>
+      </c>
+      <c r="B1707" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1703</t>
+        </is>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" s="0" t="n">
+        <v>1704</v>
+      </c>
+      <c r="B1708" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1704</t>
+        </is>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" s="0" t="n">
+        <v>1705</v>
+      </c>
+      <c r="B1709" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1705</t>
+        </is>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" s="0" t="n">
+        <v>1706</v>
+      </c>
+      <c r="B1710" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1706</t>
+        </is>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="0" t="n">
+        <v>1707</v>
+      </c>
+      <c r="B1711" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1707</t>
+        </is>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="0" t="n">
+        <v>1708</v>
+      </c>
+      <c r="B1712" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1708</t>
+        </is>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="0" t="n">
+        <v>1709</v>
+      </c>
+      <c r="B1713" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1709</t>
+        </is>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="0" t="n">
+        <v>1710</v>
+      </c>
+      <c r="B1714" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1710</t>
+        </is>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="0" t="n">
+        <v>1711</v>
+      </c>
+      <c r="B1715" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1711</t>
+        </is>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="0" t="n">
+        <v>1712</v>
+      </c>
+      <c r="B1716" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1712</t>
+        </is>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="0" t="n">
+        <v>1713</v>
+      </c>
+      <c r="B1717" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1713</t>
+        </is>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="0" t="n">
+        <v>1714</v>
+      </c>
+      <c r="B1718" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1714</t>
+        </is>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="0" t="n">
+        <v>1715</v>
+      </c>
+      <c r="B1719" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1715</t>
+        </is>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="0" t="n">
+        <v>1716</v>
+      </c>
+      <c r="B1720" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1716</t>
+        </is>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="0" t="n">
+        <v>1717</v>
+      </c>
+      <c r="B1721" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1717</t>
+        </is>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="0" t="n">
+        <v>1718</v>
+      </c>
+      <c r="B1722" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1718</t>
+        </is>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="0" t="n">
+        <v>1719</v>
+      </c>
+      <c r="B1723" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1719</t>
+        </is>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="0" t="n">
+        <v>1720</v>
+      </c>
+      <c r="B1724" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1720</t>
+        </is>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" s="0" t="n">
+        <v>1721</v>
+      </c>
+      <c r="B1725" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1721</t>
+        </is>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" s="0" t="n">
+        <v>1722</v>
+      </c>
+      <c r="B1726" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1722</t>
+        </is>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" s="0" t="n">
+        <v>1723</v>
+      </c>
+      <c r="B1727" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1723</t>
+        </is>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" s="0" t="n">
+        <v>1724</v>
+      </c>
+      <c r="B1728" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1724</t>
+        </is>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" s="0" t="n">
+        <v>1725</v>
+      </c>
+      <c r="B1729" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1725</t>
+        </is>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" s="0" t="n">
+        <v>1726</v>
+      </c>
+      <c r="B1730" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1726</t>
+        </is>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" s="0" t="n">
+        <v>1727</v>
+      </c>
+      <c r="B1731" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1727</t>
+        </is>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" s="0" t="n">
+        <v>1728</v>
+      </c>
+      <c r="B1732" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1728</t>
+        </is>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" s="0" t="n">
+        <v>1729</v>
+      </c>
+      <c r="B1733" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1729</t>
+        </is>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" s="0" t="n">
+        <v>1730</v>
+      </c>
+      <c r="B1734" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1730</t>
+        </is>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" s="0" t="n">
+        <v>1731</v>
+      </c>
+      <c r="B1735" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1731</t>
+        </is>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" s="0" t="n">
+        <v>1732</v>
+      </c>
+      <c r="B1736" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1732</t>
+        </is>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" s="0" t="n">
+        <v>1733</v>
+      </c>
+      <c r="B1737" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1733</t>
+        </is>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" s="0" t="n">
+        <v>1734</v>
+      </c>
+      <c r="B1738" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1734</t>
+        </is>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" s="0" t="n">
+        <v>1735</v>
+      </c>
+      <c r="B1739" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1735</t>
+        </is>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" s="0" t="n">
+        <v>1736</v>
+      </c>
+      <c r="B1740" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1736</t>
+        </is>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" s="0" t="n">
+        <v>1737</v>
+      </c>
+      <c r="B1741" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1737</t>
+        </is>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" s="0" t="n">
+        <v>1738</v>
+      </c>
+      <c r="B1742" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1738</t>
+        </is>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" s="0" t="n">
+        <v>1739</v>
+      </c>
+      <c r="B1743" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1739</t>
+        </is>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" s="0" t="n">
+        <v>1740</v>
+      </c>
+      <c r="B1744" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1740</t>
+        </is>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" s="0" t="n">
+        <v>1741</v>
+      </c>
+      <c r="B1745" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1741</t>
+        </is>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" s="0" t="n">
+        <v>1742</v>
+      </c>
+      <c r="B1746" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1742</t>
+        </is>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" s="0" t="n">
+        <v>1743</v>
+      </c>
+      <c r="B1747" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1743</t>
+        </is>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" s="0" t="n">
+        <v>1744</v>
+      </c>
+      <c r="B1748" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1744</t>
+        </is>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" s="0" t="n">
+        <v>1745</v>
+      </c>
+      <c r="B1749" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1745</t>
+        </is>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" s="0" t="n">
+        <v>1746</v>
+      </c>
+      <c r="B1750" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1746</t>
+        </is>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" s="0" t="n">
+        <v>1747</v>
+      </c>
+      <c r="B1751" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1747</t>
+        </is>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" s="0" t="n">
+        <v>1748</v>
+      </c>
+      <c r="B1752" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1748</t>
+        </is>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" s="0" t="n">
+        <v>1749</v>
+      </c>
+      <c r="B1753" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1749</t>
+        </is>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" s="0" t="n">
+        <v>1750</v>
+      </c>
+      <c r="B1754" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1750</t>
+        </is>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" s="0" t="n">
+        <v>1751</v>
+      </c>
+      <c r="B1755" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1751</t>
+        </is>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" s="0" t="n">
+        <v>1752</v>
+      </c>
+      <c r="B1756" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1752</t>
+        </is>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" s="0" t="n">
+        <v>1753</v>
+      </c>
+      <c r="B1757" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1753</t>
+        </is>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" s="0" t="n">
+        <v>1754</v>
+      </c>
+      <c r="B1758" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1754</t>
+        </is>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" s="0" t="n">
+        <v>1755</v>
+      </c>
+      <c r="B1759" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1755</t>
+        </is>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" s="0" t="n">
+        <v>1756</v>
+      </c>
+      <c r="B1760" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1756</t>
+        </is>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" s="0" t="n">
+        <v>1757</v>
+      </c>
+      <c r="B1761" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1757</t>
+        </is>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" s="0" t="n">
+        <v>1758</v>
+      </c>
+      <c r="B1762" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1758</t>
+        </is>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" s="0" t="n">
+        <v>1759</v>
+      </c>
+      <c r="B1763" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1759</t>
+        </is>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" s="0" t="n">
+        <v>1760</v>
+      </c>
+      <c r="B1764" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1760</t>
+        </is>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" s="0" t="n">
+        <v>1761</v>
+      </c>
+      <c r="B1765" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1761</t>
+        </is>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" s="0" t="n">
+        <v>1762</v>
+      </c>
+      <c r="B1766" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1762</t>
+        </is>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" s="0" t="n">
+        <v>1763</v>
+      </c>
+      <c r="B1767" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1763</t>
+        </is>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" s="0" t="n">
+        <v>1764</v>
+      </c>
+      <c r="B1768" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1764</t>
+        </is>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" s="0" t="n">
+        <v>1765</v>
+      </c>
+      <c r="B1769" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1765</t>
+        </is>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" s="0" t="n">
+        <v>1766</v>
+      </c>
+      <c r="B1770" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1766</t>
+        </is>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" s="0" t="n">
+        <v>1767</v>
+      </c>
+      <c r="B1771" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1767</t>
+        </is>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" s="0" t="n">
+        <v>1768</v>
+      </c>
+      <c r="B1772" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1768</t>
+        </is>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" s="0" t="n">
+        <v>1769</v>
+      </c>
+      <c r="B1773" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1769</t>
+        </is>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" s="0" t="n">
+        <v>1770</v>
+      </c>
+      <c r="B1774" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1770</t>
+        </is>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" s="0" t="n">
+        <v>1771</v>
+      </c>
+      <c r="B1775" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1771</t>
+        </is>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" s="0" t="n">
+        <v>1772</v>
+      </c>
+      <c r="B1776" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1772</t>
+        </is>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" s="0" t="n">
+        <v>1773</v>
+      </c>
+      <c r="B1777" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1773</t>
+        </is>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778" s="0" t="n">
+        <v>1774</v>
+      </c>
+      <c r="B1778" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1774</t>
+        </is>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" s="0" t="n">
+        <v>1775</v>
+      </c>
+      <c r="B1779" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1775</t>
+        </is>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" s="0" t="n">
+        <v>1776</v>
+      </c>
+      <c r="B1780" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1776</t>
+        </is>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" s="0" t="n">
+        <v>1777</v>
+      </c>
+      <c r="B1781" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1777</t>
+        </is>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" s="0" t="n">
+        <v>1778</v>
+      </c>
+      <c r="B1782" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1778</t>
+        </is>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" s="0" t="n">
+        <v>1779</v>
+      </c>
+      <c r="B1783" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1779</t>
+        </is>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" s="0" t="n">
+        <v>1780</v>
+      </c>
+      <c r="B1784" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1780</t>
+        </is>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" s="0" t="n">
+        <v>1781</v>
+      </c>
+      <c r="B1785" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1781</t>
+        </is>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" s="0" t="n">
+        <v>1782</v>
+      </c>
+      <c r="B1786" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1782</t>
+        </is>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" s="0" t="n">
+        <v>1783</v>
+      </c>
+      <c r="B1787" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1783</t>
+        </is>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" s="0" t="n">
+        <v>1784</v>
+      </c>
+      <c r="B1788" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1784</t>
+        </is>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" s="0" t="n">
+        <v>1785</v>
+      </c>
+      <c r="B1789" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1785</t>
+        </is>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" s="0" t="n">
+        <v>1786</v>
+      </c>
+      <c r="B1790" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1786</t>
+        </is>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" s="0" t="n">
+        <v>1787</v>
+      </c>
+      <c r="B1791" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1787</t>
+        </is>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" s="0" t="n">
+        <v>1788</v>
+      </c>
+      <c r="B1792" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1788</t>
+        </is>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" s="0" t="n">
+        <v>1789</v>
+      </c>
+      <c r="B1793" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1789</t>
+        </is>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" s="0" t="n">
+        <v>1790</v>
+      </c>
+      <c r="B1794" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1790</t>
+        </is>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" s="0" t="n">
+        <v>1791</v>
+      </c>
+      <c r="B1795" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1791</t>
+        </is>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" s="0" t="n">
+        <v>1792</v>
+      </c>
+      <c r="B1796" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1792</t>
+        </is>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" s="0" t="n">
+        <v>1793</v>
+      </c>
+      <c r="B1797" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1793</t>
+        </is>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" s="0" t="n">
+        <v>1794</v>
+      </c>
+      <c r="B1798" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1794</t>
+        </is>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" s="0" t="n">
+        <v>1795</v>
+      </c>
+      <c r="B1799" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1795</t>
+        </is>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" s="0" t="n">
+        <v>1796</v>
+      </c>
+      <c r="B1800" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1796</t>
+        </is>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" s="0" t="n">
+        <v>1797</v>
+      </c>
+      <c r="B1801" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1797</t>
+        </is>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" s="0" t="n">
+        <v>1798</v>
+      </c>
+      <c r="B1802" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1798</t>
+        </is>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" s="0" t="n">
+        <v>1799</v>
+      </c>
+      <c r="B1803" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1799</t>
+        </is>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="B1804" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1800</t>
+        </is>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" s="0" t="n">
+        <v>1801</v>
+      </c>
+      <c r="B1805" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1801</t>
+        </is>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806" s="0" t="n">
+        <v>1802</v>
+      </c>
+      <c r="B1806" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1802</t>
+        </is>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" s="0" t="n">
+        <v>1803</v>
+      </c>
+      <c r="B1807" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1803</t>
+        </is>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" s="0" t="n">
+        <v>1804</v>
+      </c>
+      <c r="B1808" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1804</t>
+        </is>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" s="0" t="n">
+        <v>1805</v>
+      </c>
+      <c r="B1809" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1805</t>
+        </is>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810" s="0" t="n">
+        <v>1806</v>
+      </c>
+      <c r="B1810" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1806</t>
+        </is>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" s="0" t="n">
+        <v>1807</v>
+      </c>
+      <c r="B1811" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1807</t>
+        </is>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" s="0" t="n">
+        <v>1808</v>
+      </c>
+      <c r="B1812" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1808</t>
+        </is>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" s="0" t="n">
+        <v>1809</v>
+      </c>
+      <c r="B1813" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1809</t>
+        </is>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" s="0" t="n">
+        <v>1810</v>
+      </c>
+      <c r="B1814" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1810</t>
+        </is>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" s="0" t="n">
+        <v>1811</v>
+      </c>
+      <c r="B1815" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1811</t>
+        </is>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" s="0" t="n">
+        <v>1812</v>
+      </c>
+      <c r="B1816" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1812</t>
+        </is>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" s="0" t="n">
+        <v>1813</v>
+      </c>
+      <c r="B1817" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1813</t>
+        </is>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" s="0" t="n">
+        <v>1814</v>
+      </c>
+      <c r="B1818" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1814</t>
+        </is>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" s="0" t="n">
+        <v>1815</v>
+      </c>
+      <c r="B1819" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1815</t>
+        </is>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" s="0" t="n">
+        <v>1816</v>
+      </c>
+      <c r="B1820" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1816</t>
+        </is>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" s="0" t="n">
+        <v>1817</v>
+      </c>
+      <c r="B1821" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1817</t>
+        </is>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" s="0" t="n">
+        <v>1818</v>
+      </c>
+      <c r="B1822" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1818</t>
+        </is>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" s="0" t="n">
+        <v>1819</v>
+      </c>
+      <c r="B1823" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1819</t>
+        </is>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" s="0" t="n">
+        <v>1820</v>
+      </c>
+      <c r="B1824" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1820</t>
+        </is>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" s="0" t="n">
+        <v>1821</v>
+      </c>
+      <c r="B1825" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1821</t>
+        </is>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" s="0" t="n">
+        <v>1822</v>
+      </c>
+      <c r="B1826" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1822</t>
+        </is>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" s="0" t="n">
+        <v>1823</v>
+      </c>
+      <c r="B1827" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1823</t>
+        </is>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" s="0" t="n">
+        <v>1824</v>
+      </c>
+      <c r="B1828" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1824</t>
+        </is>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" s="0" t="n">
+        <v>1825</v>
+      </c>
+      <c r="B1829" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1825</t>
+        </is>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" s="0" t="n">
+        <v>1826</v>
+      </c>
+      <c r="B1830" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1826</t>
+        </is>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" s="0" t="n">
+        <v>1827</v>
+      </c>
+      <c r="B1831" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1827</t>
+        </is>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" s="0" t="n">
+        <v>1828</v>
+      </c>
+      <c r="B1832" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1828</t>
+        </is>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" s="0" t="n">
+        <v>1829</v>
+      </c>
+      <c r="B1833" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1829</t>
+        </is>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" s="0" t="n">
+        <v>1830</v>
+      </c>
+      <c r="B1834" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1830</t>
+        </is>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" s="0" t="n">
+        <v>1831</v>
+      </c>
+      <c r="B1835" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1831</t>
+        </is>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" s="0" t="n">
+        <v>1832</v>
+      </c>
+      <c r="B1836" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1832</t>
+        </is>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" s="0" t="n">
+        <v>1833</v>
+      </c>
+      <c r="B1837" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1833</t>
+        </is>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" s="0" t="n">
+        <v>1834</v>
+      </c>
+      <c r="B1838" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1834</t>
+        </is>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" s="0" t="n">
+        <v>1835</v>
+      </c>
+      <c r="B1839" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1835</t>
+        </is>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" s="0" t="n">
+        <v>1836</v>
+      </c>
+      <c r="B1840" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1836</t>
+        </is>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" s="0" t="n">
+        <v>1837</v>
+      </c>
+      <c r="B1841" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1837</t>
+        </is>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" s="0" t="n">
+        <v>1838</v>
+      </c>
+      <c r="B1842" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1838</t>
+        </is>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" s="0" t="n">
+        <v>1839</v>
+      </c>
+      <c r="B1843" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1839</t>
+        </is>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" s="0" t="n">
+        <v>1840</v>
+      </c>
+      <c r="B1844" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1840</t>
+        </is>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" s="0" t="n">
+        <v>1841</v>
+      </c>
+      <c r="B1845" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1841</t>
+        </is>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" s="0" t="n">
+        <v>1842</v>
+      </c>
+      <c r="B1846" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1842</t>
+        </is>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" s="0" t="n">
+        <v>1843</v>
+      </c>
+      <c r="B1847" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1843</t>
+        </is>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" s="0" t="n">
+        <v>1844</v>
+      </c>
+      <c r="B1848" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1844</t>
+        </is>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" s="0" t="n">
+        <v>1845</v>
+      </c>
+      <c r="B1849" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1845</t>
+        </is>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" s="0" t="n">
+        <v>1846</v>
+      </c>
+      <c r="B1850" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1846</t>
+        </is>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" s="0" t="n">
+        <v>1847</v>
+      </c>
+      <c r="B1851" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1847</t>
+        </is>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" s="0" t="n">
+        <v>1848</v>
+      </c>
+      <c r="B1852" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1848</t>
+        </is>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" s="0" t="n">
+        <v>1849</v>
+      </c>
+      <c r="B1853" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1849</t>
+        </is>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" s="0" t="n">
+        <v>1850</v>
+      </c>
+      <c r="B1854" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1850</t>
+        </is>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" s="0" t="n">
+        <v>1851</v>
+      </c>
+      <c r="B1855" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" s="0" t="n">
+        <v>1852</v>
+      </c>
+      <c r="B1856" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1852</t>
+        </is>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" s="0" t="n">
+        <v>1853</v>
+      </c>
+      <c r="B1857" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1853</t>
+        </is>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" s="0" t="n">
+        <v>1854</v>
+      </c>
+      <c r="B1858" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1854</t>
+        </is>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" s="0" t="n">
+        <v>1855</v>
+      </c>
+      <c r="B1859" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1855</t>
+        </is>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" s="0" t="n">
+        <v>1856</v>
+      </c>
+      <c r="B1860" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1856</t>
+        </is>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" s="0" t="n">
+        <v>1857</v>
+      </c>
+      <c r="B1861" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1857</t>
+        </is>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" s="0" t="n">
+        <v>1858</v>
+      </c>
+      <c r="B1862" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1858</t>
+        </is>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" s="0" t="n">
+        <v>1859</v>
+      </c>
+      <c r="B1863" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1859</t>
+        </is>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" s="0" t="n">
+        <v>1860</v>
+      </c>
+      <c r="B1864" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1860</t>
+        </is>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" s="0" t="n">
+        <v>1861</v>
+      </c>
+      <c r="B1865" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1861</t>
+        </is>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" s="0" t="n">
+        <v>1862</v>
+      </c>
+      <c r="B1866" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1862</t>
+        </is>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" s="0" t="n">
+        <v>1863</v>
+      </c>
+      <c r="B1867" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1863</t>
+        </is>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" s="0" t="n">
+        <v>1864</v>
+      </c>
+      <c r="B1868" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1864</t>
+        </is>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" s="0" t="n">
+        <v>1865</v>
+      </c>
+      <c r="B1869" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1865</t>
+        </is>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" s="0" t="n">
+        <v>1866</v>
+      </c>
+      <c r="B1870" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1866</t>
+        </is>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" s="0" t="n">
+        <v>1867</v>
+      </c>
+      <c r="B1871" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1867</t>
+        </is>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" s="0" t="n">
+        <v>1868</v>
+      </c>
+      <c r="B1872" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1868</t>
+        </is>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" s="0" t="n">
+        <v>1869</v>
+      </c>
+      <c r="B1873" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1869</t>
+        </is>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" s="0" t="n">
+        <v>1870</v>
+      </c>
+      <c r="B1874" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1870</t>
+        </is>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" s="0" t="n">
+        <v>1871</v>
+      </c>
+      <c r="B1875" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1871</t>
+        </is>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" s="0" t="n">
+        <v>1872</v>
+      </c>
+      <c r="B1876" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1872</t>
+        </is>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" s="0" t="n">
+        <v>1873</v>
+      </c>
+      <c r="B1877" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1873</t>
+        </is>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" s="0" t="n">
+        <v>1874</v>
+      </c>
+      <c r="B1878" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1874</t>
+        </is>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" s="0" t="n">
+        <v>1875</v>
+      </c>
+      <c r="B1879" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1875</t>
+        </is>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" s="0" t="n">
+        <v>1876</v>
+      </c>
+      <c r="B1880" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1876</t>
+        </is>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" s="0" t="n">
+        <v>1877</v>
+      </c>
+      <c r="B1881" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1877</t>
+        </is>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" s="0" t="n">
+        <v>1878</v>
+      </c>
+      <c r="B1882" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1878</t>
+        </is>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" s="0" t="n">
+        <v>1879</v>
+      </c>
+      <c r="B1883" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1879</t>
+        </is>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" s="0" t="n">
+        <v>1880</v>
+      </c>
+      <c r="B1884" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1880</t>
+        </is>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" s="0" t="n">
+        <v>1881</v>
+      </c>
+      <c r="B1885" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1881</t>
+        </is>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" s="0" t="n">
+        <v>1882</v>
+      </c>
+      <c r="B1886" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1882</t>
+        </is>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" s="0" t="n">
+        <v>1883</v>
+      </c>
+      <c r="B1887" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1883</t>
+        </is>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" s="0" t="n">
+        <v>1884</v>
+      </c>
+      <c r="B1888" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1884</t>
+        </is>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" s="0" t="n">
+        <v>1885</v>
+      </c>
+      <c r="B1889" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1885</t>
+        </is>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" s="0" t="n">
+        <v>1886</v>
+      </c>
+      <c r="B1890" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1886</t>
+        </is>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" s="0" t="n">
+        <v>1887</v>
+      </c>
+      <c r="B1891" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1887</t>
+        </is>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" s="0" t="n">
+        <v>1888</v>
+      </c>
+      <c r="B1892" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1888</t>
+        </is>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" s="0" t="n">
+        <v>1889</v>
+      </c>
+      <c r="B1893" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1889</t>
+        </is>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" s="0" t="n">
+        <v>1890</v>
+      </c>
+      <c r="B1894" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1890</t>
+        </is>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" s="0" t="n">
+        <v>1891</v>
+      </c>
+      <c r="B1895" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1891</t>
+        </is>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" s="0" t="n">
+        <v>1892</v>
+      </c>
+      <c r="B1896" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1892</t>
+        </is>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" s="0" t="n">
+        <v>1893</v>
+      </c>
+      <c r="B1897" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1893</t>
+        </is>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" s="0" t="n">
+        <v>1894</v>
+      </c>
+      <c r="B1898" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1894</t>
+        </is>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" s="0" t="n">
+        <v>1895</v>
+      </c>
+      <c r="B1899" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1895</t>
+        </is>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" s="0" t="n">
+        <v>1896</v>
+      </c>
+      <c r="B1900" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1896</t>
+        </is>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" s="0" t="n">
+        <v>1897</v>
+      </c>
+      <c r="B1901" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1897</t>
+        </is>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" s="0" t="n">
+        <v>1898</v>
+      </c>
+      <c r="B1902" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1898</t>
+        </is>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" s="0" t="n">
+        <v>1899</v>
+      </c>
+      <c r="B1903" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1899</t>
+        </is>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" s="0" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B1904" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1900</t>
+        </is>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" s="0" t="n">
+        <v>1901</v>
+      </c>
+      <c r="B1905" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1901</t>
+        </is>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" s="0" t="n">
+        <v>1902</v>
+      </c>
+      <c r="B1906" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1902</t>
+        </is>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" s="0" t="n">
+        <v>1903</v>
+      </c>
+      <c r="B1907" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1903</t>
+        </is>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" s="0" t="n">
+        <v>1904</v>
+      </c>
+      <c r="B1908" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1904</t>
+        </is>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" s="0" t="n">
+        <v>1905</v>
+      </c>
+      <c r="B1909" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1905</t>
+        </is>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" s="0" t="n">
+        <v>1906</v>
+      </c>
+      <c r="B1910" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1906</t>
+        </is>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" s="0" t="n">
+        <v>1907</v>
+      </c>
+      <c r="B1911" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1907</t>
+        </is>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" s="0" t="n">
+        <v>1908</v>
+      </c>
+      <c r="B1912" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1908</t>
+        </is>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" s="0" t="n">
+        <v>1909</v>
+      </c>
+      <c r="B1913" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1909</t>
+        </is>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" s="0" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B1914" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1910</t>
+        </is>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" s="0" t="n">
+        <v>1911</v>
+      </c>
+      <c r="B1915" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1911</t>
+        </is>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" s="0" t="n">
+        <v>1912</v>
+      </c>
+      <c r="B1916" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1912</t>
+        </is>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" s="0" t="n">
+        <v>1913</v>
+      </c>
+      <c r="B1917" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1913</t>
+        </is>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" s="0" t="n">
+        <v>1914</v>
+      </c>
+      <c r="B1918" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1914</t>
+        </is>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" s="0" t="n">
+        <v>1915</v>
+      </c>
+      <c r="B1919" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1915</t>
+        </is>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" s="0" t="n">
+        <v>1916</v>
+      </c>
+      <c r="B1920" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1916</t>
+        </is>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" s="0" t="n">
+        <v>1917</v>
+      </c>
+      <c r="B1921" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1917</t>
+        </is>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" s="0" t="n">
+        <v>1918</v>
+      </c>
+      <c r="B1922" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1918</t>
+        </is>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" s="0" t="n">
+        <v>1919</v>
+      </c>
+      <c r="B1923" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1919</t>
+        </is>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" s="0" t="n">
+        <v>1920</v>
+      </c>
+      <c r="B1924" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1920</t>
+        </is>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" s="0" t="n">
+        <v>1921</v>
+      </c>
+      <c r="B1925" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" s="0" t="n">
+        <v>1922</v>
+      </c>
+      <c r="B1926" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1922</t>
+        </is>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" s="0" t="n">
+        <v>1923</v>
+      </c>
+      <c r="B1927" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1923</t>
+        </is>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" s="0" t="n">
+        <v>1924</v>
+      </c>
+      <c r="B1928" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1924</t>
+        </is>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" s="0" t="n">
+        <v>1925</v>
+      </c>
+      <c r="B1929" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1925</t>
+        </is>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" s="0" t="n">
+        <v>1926</v>
+      </c>
+      <c r="B1930" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1926</t>
+        </is>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" s="0" t="n">
+        <v>1927</v>
+      </c>
+      <c r="B1931" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1927</t>
+        </is>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" s="0" t="n">
+        <v>1928</v>
+      </c>
+      <c r="B1932" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1928</t>
+        </is>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" s="0" t="n">
+        <v>1929</v>
+      </c>
+      <c r="B1933" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1929</t>
+        </is>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" s="0" t="n">
+        <v>1930</v>
+      </c>
+      <c r="B1934" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1930</t>
+        </is>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" s="0" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B1935" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1931</t>
+        </is>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" s="0" t="n">
+        <v>1932</v>
+      </c>
+      <c r="B1936" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1932</t>
+        </is>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" s="0" t="n">
+        <v>1933</v>
+      </c>
+      <c r="B1937" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1933</t>
+        </is>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" s="0" t="n">
+        <v>1934</v>
+      </c>
+      <c r="B1938" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1934</t>
+        </is>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" s="0" t="n">
+        <v>1935</v>
+      </c>
+      <c r="B1939" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1935</t>
+        </is>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" s="0" t="n">
+        <v>1936</v>
+      </c>
+      <c r="B1940" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1936</t>
+        </is>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" s="0" t="n">
+        <v>1937</v>
+      </c>
+      <c r="B1941" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1937</t>
+        </is>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B1942" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1938</t>
+        </is>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" s="0" t="n">
+        <v>1939</v>
+      </c>
+      <c r="B1943" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1939</t>
+        </is>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" s="0" t="n">
+        <v>1940</v>
+      </c>
+      <c r="B1944" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1940</t>
+        </is>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" s="0" t="n">
+        <v>1941</v>
+      </c>
+      <c r="B1945" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1941</t>
+        </is>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" s="0" t="n">
+        <v>1942</v>
+      </c>
+      <c r="B1946" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1942</t>
+        </is>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" s="0" t="n">
+        <v>1943</v>
+      </c>
+      <c r="B1947" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1943</t>
+        </is>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" s="0" t="n">
+        <v>1944</v>
+      </c>
+      <c r="B1948" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1944</t>
+        </is>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" s="0" t="n">
+        <v>1945</v>
+      </c>
+      <c r="B1949" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1945</t>
+        </is>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" s="0" t="n">
+        <v>1946</v>
+      </c>
+      <c r="B1950" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1946</t>
+        </is>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" s="0" t="n">
+        <v>1947</v>
+      </c>
+      <c r="B1951" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1947</t>
+        </is>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" s="0" t="n">
+        <v>1948</v>
+      </c>
+      <c r="B1952" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1948</t>
+        </is>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" s="0" t="n">
+        <v>1949</v>
+      </c>
+      <c r="B1953" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1949</t>
+        </is>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" s="0" t="n">
+        <v>1950</v>
+      </c>
+      <c r="B1954" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1950</t>
+        </is>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" s="0" t="n">
+        <v>1951</v>
+      </c>
+      <c r="B1955" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1951</t>
+        </is>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" s="0" t="n">
+        <v>1952</v>
+      </c>
+      <c r="B1956" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1952</t>
+        </is>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" s="0" t="n">
+        <v>1953</v>
+      </c>
+      <c r="B1957" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1953</t>
+        </is>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" s="0" t="n">
+        <v>1954</v>
+      </c>
+      <c r="B1958" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1954</t>
+        </is>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" s="0" t="n">
+        <v>1955</v>
+      </c>
+      <c r="B1959" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1955</t>
+        </is>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" s="0" t="n">
+        <v>1956</v>
+      </c>
+      <c r="B1960" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1956</t>
+        </is>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961" s="0" t="n">
+        <v>1957</v>
+      </c>
+      <c r="B1961" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1957</t>
+        </is>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" s="0" t="n">
+        <v>1958</v>
+      </c>
+      <c r="B1962" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1958</t>
+        </is>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" s="0" t="n">
+        <v>1959</v>
+      </c>
+      <c r="B1963" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1959</t>
+        </is>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" s="0" t="n">
+        <v>1960</v>
+      </c>
+      <c r="B1964" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1960</t>
+        </is>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" s="0" t="n">
+        <v>1961</v>
+      </c>
+      <c r="B1965" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1961</t>
+        </is>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" s="0" t="n">
+        <v>1962</v>
+      </c>
+      <c r="B1966" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1962</t>
+        </is>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" s="0" t="n">
+        <v>1963</v>
+      </c>
+      <c r="B1967" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1963</t>
+        </is>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" s="0" t="n">
+        <v>1964</v>
+      </c>
+      <c r="B1968" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1964</t>
+        </is>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" s="0" t="n">
+        <v>1965</v>
+      </c>
+      <c r="B1969" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1965</t>
+        </is>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970" s="0" t="n">
+        <v>1966</v>
+      </c>
+      <c r="B1970" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1966</t>
+        </is>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" s="0" t="n">
+        <v>1967</v>
+      </c>
+      <c r="B1971" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1967</t>
+        </is>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" s="0" t="n">
+        <v>1968</v>
+      </c>
+      <c r="B1972" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1968</t>
+        </is>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" s="0" t="n">
+        <v>1969</v>
+      </c>
+      <c r="B1973" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1969</t>
+        </is>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974" s="0" t="n">
+        <v>1970</v>
+      </c>
+      <c r="B1974" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1970</t>
+        </is>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" s="0" t="n">
+        <v>1971</v>
+      </c>
+      <c r="B1975" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1971</t>
+        </is>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976" s="0" t="n">
+        <v>1972</v>
+      </c>
+      <c r="B1976" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1972</t>
+        </is>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977" s="0" t="n">
+        <v>1973</v>
+      </c>
+      <c r="B1977" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1973</t>
+        </is>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="A1978" s="0" t="n">
+        <v>1974</v>
+      </c>
+      <c r="B1978" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1974</t>
+        </is>
+      </c>
+    </row>
+    <row r="1979">
+      <c r="A1979" s="0" t="n">
+        <v>1975</v>
+      </c>
+      <c r="B1979" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1975</t>
+        </is>
+      </c>
+    </row>
+    <row r="1980">
+      <c r="A1980" s="0" t="n">
+        <v>1976</v>
+      </c>
+      <c r="B1980" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1976</t>
+        </is>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="A1981" s="0" t="n">
+        <v>1977</v>
+      </c>
+      <c r="B1981" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1977</t>
+        </is>
+      </c>
+    </row>
+    <row r="1982">
+      <c r="A1982" s="0" t="n">
+        <v>1978</v>
+      </c>
+      <c r="B1982" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1978</t>
+        </is>
+      </c>
+    </row>
+    <row r="1983">
+      <c r="A1983" s="0" t="n">
+        <v>1979</v>
+      </c>
+      <c r="B1983" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1979</t>
+        </is>
+      </c>
+    </row>
+    <row r="1984">
+      <c r="A1984" s="0" t="n">
+        <v>1980</v>
+      </c>
+      <c r="B1984" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1980</t>
+        </is>
+      </c>
+    </row>
+    <row r="1985">
+      <c r="A1985" s="0" t="n">
+        <v>1981</v>
+      </c>
+      <c r="B1985" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1981</t>
+        </is>
+      </c>
+    </row>
+    <row r="1986">
+      <c r="A1986" s="0" t="n">
+        <v>1982</v>
+      </c>
+      <c r="B1986" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1982</t>
+        </is>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987" s="0" t="n">
+        <v>1983</v>
+      </c>
+      <c r="B1987" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1983</t>
+        </is>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="A1988" s="0" t="n">
+        <v>1984</v>
+      </c>
+      <c r="B1988" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1984</t>
+        </is>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989" s="0" t="n">
+        <v>1985</v>
+      </c>
+      <c r="B1989" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1985</t>
+        </is>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="A1990" s="0" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B1990" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1986</t>
+        </is>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="A1991" s="0" t="n">
+        <v>1987</v>
+      </c>
+      <c r="B1991" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1987</t>
+        </is>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" s="0" t="n">
+        <v>1988</v>
+      </c>
+      <c r="B1992" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1988</t>
+        </is>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993" s="0" t="n">
+        <v>1989</v>
+      </c>
+      <c r="B1993" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1989</t>
+        </is>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994" s="0" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B1994" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1990</t>
+        </is>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" s="0" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B1995" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1991</t>
+        </is>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996" s="0" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B1996" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997" s="0" t="n">
+        <v>1993</v>
+      </c>
+      <c r="B1997" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1993</t>
+        </is>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998" s="0" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B1998" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1994</t>
+        </is>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" s="0" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B1999" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1995</t>
+        </is>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" s="0" t="n">
+        <v>1996</v>
+      </c>
+      <c r="B2000" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1996</t>
+        </is>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" s="0" t="n">
+        <v>1997</v>
+      </c>
+      <c r="B2001" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="A2002" s="0" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B2002" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1998</t>
+        </is>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003" s="0" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B2003" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B2004" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="2005">
+      <c r="A2005" s="0" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B2005" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="A2006" s="0" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B2006" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007" s="0" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B2007" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="A2008" s="0" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B2008" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="A2009" s="0" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B2009" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="2010">
+      <c r="A2010" s="0" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B2010" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B2011" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="2012">
+      <c r="A2012" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B2012" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="2013">
+      <c r="A2013" s="0" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B2013" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="2014">
+      <c r="A2014" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B2014" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="A2015" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B2015" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="A2016" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B2016" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="2017">
+      <c r="A2017" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B2017" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="2018">
+      <c r="A2018" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B2018" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="2019">
+      <c r="A2019" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B2019" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="2020">
+      <c r="A2020" s="0" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B2020" s="0" t="inlineStr">
+        <is>
+          <t>黄金556d</t>
+        </is>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="A2021" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B2021" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="2022">
+      <c r="A2022" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B2022" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="2023">
+      <c r="A2023" s="0" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B2023" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="A2024" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B2024" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="2025">
+      <c r="A2025" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B2025" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="A2026" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B2026" s="0" t="inlineStr">
+        <is>
+          <t>黄金556ds</t>
+        </is>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="A2027" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B2027" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="A2028" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B2028" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="A2029" s="0" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B2029" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="A2030" s="0" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B2030" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="A2031" s="0" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B2031" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2027</t>
+        </is>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="A2032" s="0" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B2032" s="0" t="inlineStr">
+        <is>
+          <t>黄金556dsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="2033">
+      <c r="A2033" s="0" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B2033" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2029</t>
+        </is>
+      </c>
+    </row>
+    <row r="2034">
+      <c r="A2034" s="0" t="n">
+        <v>2030</v>
+      </c>
+      <c r="B2034" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2030</t>
+        </is>
+      </c>
+    </row>
+    <row r="2035">
+      <c r="A2035" s="0" t="n">
+        <v>2031</v>
+      </c>
+      <c r="B2035" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2031</t>
+        </is>
+      </c>
+    </row>
+    <row r="2036">
+      <c r="A2036" s="0" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B2036" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2032</t>
+        </is>
+      </c>
+    </row>
+    <row r="2037">
+      <c r="A2037" s="0" t="n">
+        <v>2033</v>
+      </c>
+      <c r="B2037" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2033</t>
+        </is>
+      </c>
+    </row>
+    <row r="2038">
+      <c r="A2038" s="0" t="n">
+        <v>2034</v>
+      </c>
+      <c r="B2038" s="0" t="inlineStr">
+        <is>
+          <t>黄金556dsxc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2039">
+      <c r="A2039" s="0" t="n">
+        <v>2035</v>
+      </c>
+      <c r="B2039" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2035</t>
+        </is>
+      </c>
+    </row>
+    <row r="2040">
+      <c r="A2040" s="0" t="n">
+        <v>2036</v>
+      </c>
+      <c r="B2040" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2036</t>
+        </is>
+      </c>
+    </row>
+    <row r="2041">
+      <c r="A2041" s="0" t="n">
+        <v>2037</v>
+      </c>
+      <c r="B2041" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2037</t>
+        </is>
+      </c>
+    </row>
+    <row r="2042">
+      <c r="A2042" s="0" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B2042" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2038</t>
+        </is>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043" s="0" t="n">
+        <v>2039</v>
+      </c>
+      <c r="B2043" s="0" t="inlineStr">
+        <is>
+          <t>黄金556dsxcv</t>
+        </is>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="A2044" s="0" t="n">
+        <v>2040</v>
+      </c>
+      <c r="B2044" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2040</t>
+        </is>
+      </c>
+    </row>
+    <row r="2045">
+      <c r="A2045" s="0" t="n">
+        <v>2041</v>
+      </c>
+      <c r="B2045" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2041</t>
+        </is>
+      </c>
+    </row>
+    <row r="2046">
+      <c r="A2046" s="0" t="n">
+        <v>2042</v>
+      </c>
+      <c r="B2046" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2042</t>
+        </is>
+      </c>
+    </row>
+    <row r="2047">
+      <c r="A2047" s="0" t="n">
+        <v>2043</v>
+      </c>
+      <c r="B2047" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2043</t>
+        </is>
+      </c>
+    </row>
+    <row r="2048">
+      <c r="A2048" s="0" t="n">
+        <v>2044</v>
+      </c>
+      <c r="B2048" s="0" t="inlineStr">
+        <is>
+          <t>黄金556dsxcvb</t>
+        </is>
+      </c>
+    </row>
+    <row r="2049">
+      <c r="A2049" s="0" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B2049" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2045</t>
+        </is>
+      </c>
+    </row>
+    <row r="2050">
+      <c r="A2050" s="0" t="n">
+        <v>2046</v>
+      </c>
+      <c r="B2050" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2046</t>
+        </is>
+      </c>
+    </row>
+    <row r="2051">
+      <c r="A2051" s="0" t="n">
+        <v>2047</v>
+      </c>
+      <c r="B2051" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2047</t>
+        </is>
+      </c>
+    </row>
+    <row r="2052">
+      <c r="A2052" s="0" t="n">
+        <v>2048</v>
+      </c>
+      <c r="B2052" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2048</t>
+        </is>
+      </c>
+    </row>
+    <row r="2053">
+      <c r="A2053" s="0" t="n">
+        <v>2049</v>
+      </c>
+      <c r="B2053" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2049</t>
+        </is>
+      </c>
+    </row>
+    <row r="2054">
+      <c r="A2054" s="0" t="n">
+        <v>2050</v>
+      </c>
+      <c r="B2054" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2050</t>
+        </is>
+      </c>
+    </row>
+    <row r="2055">
+      <c r="A2055" s="0" t="n">
+        <v>2051</v>
+      </c>
+      <c r="B2055" s="0" t="inlineStr">
+        <is>
+          <t>黄金556dsxcvbn</t>
+        </is>
+      </c>
+    </row>
+    <row r="2056">
+      <c r="A2056" s="0" t="n">
+        <v>2052</v>
+      </c>
+      <c r="B2056" s="0" t="inlineStr">
+        <is>
+          <t>黄金556dsxcvbnc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2057">
+      <c r="A2057" s="0" t="n">
+        <v>2053</v>
+      </c>
+      <c r="B2057" s="0" t="inlineStr">
+        <is>
+          <t>黄金556dsxcvbncz</t>
+        </is>
+      </c>
+    </row>
+    <row r="2058">
+      <c r="A2058" s="0" t="n">
+        <v>2054</v>
+      </c>
+      <c r="B2058" s="0" t="inlineStr">
+        <is>
+          <t>黄金556dsxcvbnczc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2059">
+      <c r="A2059" s="0" t="n">
+        <v>2055</v>
+      </c>
+      <c r="B2059" s="0" t="inlineStr">
+        <is>
+          <t>黄金556dsxcvbnczc2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2060">
+      <c r="A2060" s="0" t="n">
+        <v>2056</v>
+      </c>
+      <c r="B2060" s="0" t="inlineStr">
+        <is>
+          <t>黄金556dsxcvbnczc23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2061">
+      <c r="A2061" s="0" t="n">
+        <v>2057</v>
+      </c>
+      <c r="B2061" s="0" t="inlineStr">
+        <is>
+          <t>黄金556dsxcvbnczc234</t>
+        </is>
+      </c>
+    </row>
+    <row r="2062">
+      <c r="A2062" s="0" t="n">
+        <v>2058</v>
+      </c>
+      <c r="B2062" s="0" t="inlineStr">
+        <is>
+          <t>黄金556dsxcvbnczc2345</t>
+        </is>
+      </c>
+    </row>
+    <row r="2063">
+      <c r="A2063" s="0" t="n">
+        <v>2059</v>
+      </c>
+      <c r="B2063" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2059</t>
+        </is>
+      </c>
+    </row>
+    <row r="2064">
+      <c r="A2064" s="0" t="n">
+        <v>2060</v>
+      </c>
+      <c r="B2064" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2060</t>
+        </is>
+      </c>
+    </row>
+    <row r="2065">
+      <c r="A2065" s="0" t="n">
+        <v>2061</v>
+      </c>
+      <c r="B2065" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2061</t>
+        </is>
+      </c>
+    </row>
+    <row r="2066">
+      <c r="A2066" s="0" t="n">
+        <v>2062</v>
+      </c>
+      <c r="B2066" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2062</t>
+        </is>
+      </c>
+    </row>
+    <row r="2067">
+      <c r="A2067" s="0" t="n">
+        <v>2063</v>
+      </c>
+      <c r="B2067" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2063</t>
+        </is>
+      </c>
+    </row>
+    <row r="2068">
+      <c r="A2068" s="0" t="n">
+        <v>2064</v>
+      </c>
+      <c r="B2068" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2064</t>
+        </is>
+      </c>
+    </row>
+    <row r="2069">
+      <c r="A2069" s="0" t="n">
+        <v>2065</v>
+      </c>
+      <c r="B2069" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2065</t>
+        </is>
+      </c>
+    </row>
+    <row r="2070">
+      <c r="A2070" s="0" t="n">
+        <v>2066</v>
+      </c>
+      <c r="B2070" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2066</t>
+        </is>
+      </c>
+    </row>
+    <row r="2071">
+      <c r="A2071" s="0" t="n">
+        <v>2067</v>
+      </c>
+      <c r="B2071" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2067</t>
+        </is>
+      </c>
+    </row>
+    <row r="2072">
+      <c r="A2072" s="0" t="n">
+        <v>2068</v>
+      </c>
+      <c r="B2072" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2068</t>
+        </is>
+      </c>
+    </row>
+    <row r="2073">
+      <c r="A2073" s="0" t="n">
+        <v>2069</v>
+      </c>
+      <c r="B2073" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2069</t>
+        </is>
+      </c>
+    </row>
+    <row r="2074">
+      <c r="A2074" s="0" t="n">
+        <v>2070</v>
+      </c>
+      <c r="B2074" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2070</t>
+        </is>
+      </c>
+    </row>
+    <row r="2075">
+      <c r="A2075" s="0" t="n">
+        <v>2071</v>
+      </c>
+      <c r="B2075" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2071</t>
+        </is>
+      </c>
+    </row>
+    <row r="2076">
+      <c r="A2076" s="0" t="n">
+        <v>2072</v>
+      </c>
+      <c r="B2076" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2072</t>
+        </is>
+      </c>
+    </row>
+    <row r="2077">
+      <c r="A2077" s="0" t="n">
+        <v>2073</v>
+      </c>
+      <c r="B2077" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2073</t>
+        </is>
+      </c>
+    </row>
+    <row r="2078">
+      <c r="A2078" s="0" t="n">
+        <v>2074</v>
+      </c>
+      <c r="B2078" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2074</t>
+        </is>
+      </c>
+    </row>
+    <row r="2079">
+      <c r="A2079" s="0" t="n">
+        <v>2075</v>
+      </c>
+      <c r="B2079" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2075</t>
+        </is>
+      </c>
+    </row>
+    <row r="2080">
+      <c r="A2080" s="0" t="n">
+        <v>2076</v>
+      </c>
+      <c r="B2080" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2076</t>
+        </is>
+      </c>
+    </row>
+    <row r="2081">
+      <c r="A2081" s="0" t="n">
+        <v>2077</v>
+      </c>
+      <c r="B2081" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2077</t>
+        </is>
+      </c>
+    </row>
+    <row r="2082">
+      <c r="A2082" s="0" t="n">
+        <v>2078</v>
+      </c>
+      <c r="B2082" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2078</t>
+        </is>
+      </c>
+    </row>
+    <row r="2083">
+      <c r="A2083" s="0" t="n">
+        <v>2079</v>
+      </c>
+      <c r="B2083" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2079</t>
+        </is>
+      </c>
+    </row>
+    <row r="2084">
+      <c r="A2084" s="0" t="n">
+        <v>2080</v>
+      </c>
+      <c r="B2084" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2080</t>
+        </is>
+      </c>
+    </row>
+    <row r="2085">
+      <c r="A2085" s="0" t="n">
+        <v>2081</v>
+      </c>
+      <c r="B2085" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2081</t>
+        </is>
+      </c>
+    </row>
+    <row r="2086">
+      <c r="A2086" s="0" t="n">
+        <v>2082</v>
+      </c>
+      <c r="B2086" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2082</t>
+        </is>
+      </c>
+    </row>
+    <row r="2087">
+      <c r="A2087" s="0" t="n">
+        <v>2083</v>
+      </c>
+      <c r="B2087" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2083</t>
+        </is>
+      </c>
+    </row>
+    <row r="2088">
+      <c r="A2088" s="0" t="n">
+        <v>2084</v>
+      </c>
+      <c r="B2088" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2084</t>
+        </is>
+      </c>
+    </row>
+    <row r="2089">
+      <c r="A2089" s="0" t="n">
+        <v>2085</v>
+      </c>
+      <c r="B2089" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2085</t>
+        </is>
+      </c>
+    </row>
+    <row r="2090">
+      <c r="A2090" s="0" t="n">
+        <v>2086</v>
+      </c>
+      <c r="B2090" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2086</t>
+        </is>
+      </c>
+    </row>
+    <row r="2091">
+      <c r="A2091" s="0" t="n">
+        <v>2087</v>
+      </c>
+      <c r="B2091" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2087</t>
+        </is>
+      </c>
+    </row>
+    <row r="2092">
+      <c r="A2092" s="0" t="n">
+        <v>2088</v>
+      </c>
+      <c r="B2092" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2088</t>
+        </is>
+      </c>
+    </row>
+    <row r="2093">
+      <c r="A2093" s="0" t="n">
+        <v>2089</v>
+      </c>
+      <c r="B2093" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2089</t>
+        </is>
+      </c>
+    </row>
+    <row r="2094">
+      <c r="A2094" s="0" t="n">
+        <v>2090</v>
+      </c>
+      <c r="B2094" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2090</t>
+        </is>
+      </c>
+    </row>
+    <row r="2095">
+      <c r="A2095" s="0" t="n">
+        <v>2091</v>
+      </c>
+      <c r="B2095" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2091</t>
+        </is>
+      </c>
+    </row>
+    <row r="2096">
+      <c r="A2096" s="0" t="n">
+        <v>2092</v>
+      </c>
+      <c r="B2096" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2092</t>
+        </is>
+      </c>
+    </row>
+    <row r="2097">
+      <c r="A2097" s="0" t="n">
+        <v>2093</v>
+      </c>
+      <c r="B2097" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2093</t>
+        </is>
+      </c>
+    </row>
+    <row r="2098">
+      <c r="A2098" s="0" t="n">
+        <v>2094</v>
+      </c>
+      <c r="B2098" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2094</t>
+        </is>
+      </c>
+    </row>
+    <row r="2099">
+      <c r="A2099" s="0" t="n">
+        <v>2095</v>
+      </c>
+      <c r="B2099" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2095</t>
+        </is>
+      </c>
+    </row>
+    <row r="2100">
+      <c r="A2100" s="0" t="n">
+        <v>2096</v>
+      </c>
+      <c r="B2100" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2096</t>
+        </is>
+      </c>
+    </row>
+    <row r="2101">
+      <c r="A2101" s="0" t="n">
+        <v>2097</v>
+      </c>
+      <c r="B2101" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2097</t>
+        </is>
+      </c>
+    </row>
+    <row r="2102">
+      <c r="A2102" s="0" t="n">
+        <v>2098</v>
+      </c>
+      <c r="B2102" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2098</t>
+        </is>
+      </c>
+    </row>
+    <row r="2103">
+      <c r="A2103" s="0" t="n">
+        <v>2099</v>
+      </c>
+      <c r="B2103" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2099</t>
+        </is>
+      </c>
+    </row>
+    <row r="2104">
+      <c r="A2104" s="0" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B2104" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2100</t>
+        </is>
+      </c>
+    </row>
+    <row r="2105">
+      <c r="A2105" s="0" t="n">
+        <v>2101</v>
+      </c>
+      <c r="B2105" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2101</t>
+        </is>
+      </c>
+    </row>
+    <row r="2106">
+      <c r="A2106" s="0" t="n">
+        <v>2102</v>
+      </c>
+      <c r="B2106" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2102</t>
+        </is>
+      </c>
+    </row>
+    <row r="2107">
+      <c r="A2107" s="0" t="n">
+        <v>2103</v>
+      </c>
+      <c r="B2107" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2103</t>
+        </is>
+      </c>
+    </row>
+    <row r="2108">
+      <c r="A2108" s="0" t="n">
+        <v>2104</v>
+      </c>
+      <c r="B2108" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2104</t>
+        </is>
+      </c>
+    </row>
+    <row r="2109">
+      <c r="A2109" s="0" t="n">
+        <v>2105</v>
+      </c>
+      <c r="B2109" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2105</t>
+        </is>
+      </c>
+    </row>
+    <row r="2110">
+      <c r="A2110" s="0" t="n">
+        <v>2106</v>
+      </c>
+      <c r="B2110" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2106</t>
+        </is>
+      </c>
+    </row>
+    <row r="2111">
+      <c r="A2111" s="0" t="n">
+        <v>2107</v>
+      </c>
+      <c r="B2111" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2107</t>
+        </is>
+      </c>
+    </row>
+    <row r="2112">
+      <c r="A2112" s="0" t="n">
+        <v>2108</v>
+      </c>
+      <c r="B2112" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2108</t>
+        </is>
+      </c>
+    </row>
+    <row r="2113">
+      <c r="A2113" s="0" t="n">
+        <v>2109</v>
+      </c>
+      <c r="B2113" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2109</t>
+        </is>
+      </c>
+    </row>
+    <row r="2114">
+      <c r="A2114" s="0" t="n">
+        <v>2110</v>
+      </c>
+      <c r="B2114" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2110</t>
+        </is>
+      </c>
+    </row>
+    <row r="2115">
+      <c r="A2115" s="0" t="n">
+        <v>2111</v>
+      </c>
+      <c r="B2115" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2111</t>
+        </is>
+      </c>
+    </row>
+    <row r="2116">
+      <c r="A2116" s="0" t="n">
+        <v>2112</v>
+      </c>
+      <c r="B2116" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2112</t>
+        </is>
+      </c>
+    </row>
+    <row r="2117">
+      <c r="A2117" s="0" t="n">
+        <v>2113</v>
+      </c>
+      <c r="B2117" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2113</t>
+        </is>
+      </c>
+    </row>
+    <row r="2118">
+      <c r="A2118" s="0" t="n">
+        <v>2114</v>
+      </c>
+      <c r="B2118" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2114</t>
+        </is>
+      </c>
+    </row>
+    <row r="2119">
+      <c r="A2119" s="0" t="n">
+        <v>2115</v>
+      </c>
+      <c r="B2119" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2115</t>
+        </is>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="A2120" s="0" t="n">
+        <v>2116</v>
+      </c>
+      <c r="B2120" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2116</t>
+        </is>
+      </c>
+    </row>
+    <row r="2121">
+      <c r="A2121" s="0" t="n">
+        <v>2117</v>
+      </c>
+      <c r="B2121" s="0" t="inlineStr">
+        <is>
+          <t>黄金xxxx</t>
+        </is>
+      </c>
+    </row>
+    <row r="2122">
+      <c r="A2122" s="0" t="n">
+        <v>2118</v>
+      </c>
+      <c r="B2122" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2118</t>
+        </is>
+      </c>
+    </row>
+    <row r="2123">
+      <c r="A2123" s="0" t="n">
+        <v>2119</v>
+      </c>
+      <c r="B2123" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2119</t>
+        </is>
+      </c>
+    </row>
+    <row r="2124">
+      <c r="A2124" s="0" t="n">
+        <v>2120</v>
+      </c>
+      <c r="B2124" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2120</t>
+        </is>
+      </c>
+    </row>
+    <row r="2125">
+      <c r="A2125" s="0" t="n">
+        <v>2121</v>
+      </c>
+      <c r="B2125" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2121</t>
+        </is>
+      </c>
+    </row>
+    <row r="2126">
+      <c r="A2126" s="0" t="n">
+        <v>2122</v>
+      </c>
+      <c r="B2126" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2127">
+      <c r="A2127" s="0" t="n">
+        <v>2123</v>
+      </c>
+      <c r="B2127" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2123</t>
+        </is>
+      </c>
+    </row>
+    <row r="2128">
+      <c r="A2128" s="0" t="n">
+        <v>2124</v>
+      </c>
+      <c r="B2128" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2124</t>
+        </is>
+      </c>
+    </row>
+    <row r="2129">
+      <c r="A2129" s="0" t="n">
+        <v>2125</v>
+      </c>
+      <c r="B2129" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2125</t>
+        </is>
+      </c>
+    </row>
+    <row r="2130">
+      <c r="A2130" s="0" t="n">
+        <v>2127</v>
+      </c>
+      <c r="B2130" s="0" t="inlineStr">
+        <is>
+          <t>黄金xxxxcvv</t>
+        </is>
+      </c>
+    </row>
+    <row r="2131">
+      <c r="A2131" s="0" t="n">
+        <v>2126</v>
+      </c>
+      <c r="B2131" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2126</t>
+        </is>
+      </c>
+    </row>
+    <row r="2132">
+      <c r="A2132" s="0" t="n">
+        <v>2128</v>
+      </c>
+      <c r="B2132" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2128</t>
+        </is>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="A2133" s="0" t="n">
+        <v>2129</v>
+      </c>
+      <c r="B2133" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2129</t>
+        </is>
+      </c>
+    </row>
+    <row r="2134">
+      <c r="A2134" s="0" t="n">
+        <v>2130</v>
+      </c>
+      <c r="B2134" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2130</t>
+        </is>
+      </c>
+    </row>
+    <row r="2135">
+      <c r="A2135" s="0" t="n">
+        <v>2131</v>
+      </c>
+      <c r="B2135" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2131</t>
+        </is>
+      </c>
+    </row>
+    <row r="2136">
+      <c r="A2136" s="0" t="n">
+        <v>2132</v>
+      </c>
+      <c r="B2136" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2132</t>
+        </is>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="A2137" s="0" t="n">
+        <v>2133</v>
+      </c>
+      <c r="B2137" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2133</t>
+        </is>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="A2138" s="0" t="n">
+        <v>2134</v>
+      </c>
+      <c r="B2138" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2134</t>
+        </is>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="A2139" s="0" t="n">
+        <v>2135</v>
+      </c>
+      <c r="B2139" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2135</t>
+        </is>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="A2140" s="0" t="n">
+        <v>2136</v>
+      </c>
+      <c r="B2140" s="0" t="inlineStr">
+        <is>
+          <t>黄金xxxxcvvz</t>
+        </is>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="A2141" s="0" t="n">
+        <v>2137</v>
+      </c>
+      <c r="B2141" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2137</t>
+        </is>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="A2142" s="0" t="n">
+        <v>2138</v>
+      </c>
+      <c r="B2142" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2138</t>
+        </is>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="A2143" s="0" t="n">
+        <v>2139</v>
+      </c>
+      <c r="B2143" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2139</t>
+        </is>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" s="0" t="n">
+        <v>2140</v>
+      </c>
+      <c r="B2144" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2140</t>
+        </is>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" s="0" t="n">
+        <v>2142</v>
+      </c>
+      <c r="B2145" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2142</t>
+        </is>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="0" t="n">
+        <v>2141</v>
+      </c>
+      <c r="B2146" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2141</t>
+        </is>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" s="0" t="n">
+        <v>2143</v>
+      </c>
+      <c r="B2147" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2143</t>
+        </is>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" s="0" t="n">
+        <v>2144</v>
+      </c>
+      <c r="B2148" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2144</t>
+        </is>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" s="0" t="n">
+        <v>2145</v>
+      </c>
+      <c r="B2149" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2145</t>
+        </is>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="0" t="n">
+        <v>2147</v>
+      </c>
+      <c r="B2150" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2147</t>
+        </is>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" s="0" t="n">
+        <v>2146</v>
+      </c>
+      <c r="B2151" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2146</t>
+        </is>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" s="0" t="n">
+        <v>2148</v>
+      </c>
+      <c r="B2152" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2148</t>
+        </is>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="0" t="n">
+        <v>2149</v>
+      </c>
+      <c r="B2153" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2149</t>
+        </is>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" s="0" t="n">
+        <v>2150</v>
+      </c>
+      <c r="B2154" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2150</t>
+        </is>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="0" t="n">
+        <v>2151</v>
+      </c>
+      <c r="B2155" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2151</t>
+        </is>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" s="0" t="n">
+        <v>2152</v>
+      </c>
+      <c r="B2156" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2152</t>
+        </is>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" s="0" t="n">
+        <v>2153</v>
+      </c>
+      <c r="B2157" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2153</t>
+        </is>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="0" t="n">
+        <v>2154</v>
+      </c>
+      <c r="B2158" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2154</t>
+        </is>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" s="0" t="n">
+        <v>2155</v>
+      </c>
+      <c r="B2159" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2155</t>
+        </is>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" s="0" t="n">
+        <v>2156</v>
+      </c>
+      <c r="B2160" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2156</t>
+        </is>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" s="0" t="n">
+        <v>2157</v>
+      </c>
+      <c r="B2161" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2157</t>
+        </is>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="0" t="n">
+        <v>2158</v>
+      </c>
+      <c r="B2162" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2158</t>
+        </is>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" s="0" t="n">
+        <v>2159</v>
+      </c>
+      <c r="B2163" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2159</t>
+        </is>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" s="0" t="n">
+        <v>2160</v>
+      </c>
+      <c r="B2164" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2160</t>
+        </is>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" s="0" t="n">
+        <v>2161</v>
+      </c>
+      <c r="B2165" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2161</t>
+        </is>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" s="0" t="n">
+        <v>2162</v>
+      </c>
+      <c r="B2166" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2162</t>
+        </is>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" s="0" t="n">
+        <v>2163</v>
+      </c>
+      <c r="B2167" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2163</t>
+        </is>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" s="0" t="n">
+        <v>2164</v>
+      </c>
+      <c r="B2168" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2164</t>
+        </is>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" s="0" t="n">
+        <v>2166</v>
+      </c>
+      <c r="B2169" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2166</t>
+        </is>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" s="0" t="n">
+        <v>2165</v>
+      </c>
+      <c r="B2170" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2165</t>
+        </is>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" s="0" t="n">
+        <v>2167</v>
+      </c>
+      <c r="B2171" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2167</t>
+        </is>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" s="0" t="n">
+        <v>2169</v>
+      </c>
+      <c r="B2172" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2169</t>
+        </is>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" s="0" t="n">
+        <v>2168</v>
+      </c>
+      <c r="B2173" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2168</t>
+        </is>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" s="0" t="n">
+        <v>2170</v>
+      </c>
+      <c r="B2174" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2170</t>
+        </is>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" s="0" t="n">
+        <v>2171</v>
+      </c>
+      <c r="B2175" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2171</t>
+        </is>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" s="0" t="n">
+        <v>2172</v>
+      </c>
+      <c r="B2176" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2172</t>
+        </is>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" s="0" t="n">
+        <v>2173</v>
+      </c>
+      <c r="B2177" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2173</t>
+        </is>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" s="0" t="n">
+        <v>2174</v>
+      </c>
+      <c r="B2178" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2174</t>
+        </is>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" s="0" t="n">
+        <v>2175</v>
+      </c>
+      <c r="B2179" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2175</t>
+        </is>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" s="0" t="n">
+        <v>2176</v>
+      </c>
+      <c r="B2180" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2176</t>
+        </is>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" s="0" t="n">
+        <v>2178</v>
+      </c>
+      <c r="B2181" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2178</t>
+        </is>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" s="0" t="n">
+        <v>2177</v>
+      </c>
+      <c r="B2182" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2177</t>
+        </is>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" s="0" t="n">
+        <v>2179</v>
+      </c>
+      <c r="B2183" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2179</t>
+        </is>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" s="0" t="n">
+        <v>2180</v>
+      </c>
+      <c r="B2184" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2180</t>
+        </is>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" s="0" t="n">
+        <v>2181</v>
+      </c>
+      <c r="B2185" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2181</t>
+        </is>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" s="0" t="n">
+        <v>2182</v>
+      </c>
+      <c r="B2186" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2182</t>
+        </is>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" s="0" t="n">
+        <v>2183</v>
+      </c>
+      <c r="B2187" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2183</t>
+        </is>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" s="0" t="n">
+        <v>2184</v>
+      </c>
+      <c r="B2188" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2184</t>
+        </is>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" s="0" t="n">
+        <v>2185</v>
+      </c>
+      <c r="B2189" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2185</t>
+        </is>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" s="0" t="n">
+        <v>2186</v>
+      </c>
+      <c r="B2190" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2186</t>
+        </is>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" s="0" t="n">
+        <v>2187</v>
+      </c>
+      <c r="B2191" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2187</t>
+        </is>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" s="0" t="n">
+        <v>2188</v>
+      </c>
+      <c r="B2192" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2188</t>
+        </is>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" s="0" t="n">
+        <v>2189</v>
+      </c>
+      <c r="B2193" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2189</t>
+        </is>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" s="0" t="n">
+        <v>2191</v>
+      </c>
+      <c r="B2194" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2191</t>
+        </is>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="A2195" s="0" t="n">
+        <v>2190</v>
+      </c>
+      <c r="B2195" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2190</t>
+        </is>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="A2196" s="0" t="n">
+        <v>2192</v>
+      </c>
+      <c r="B2196" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2192</t>
+        </is>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197" s="0" t="n">
+        <v>2193</v>
+      </c>
+      <c r="B2197" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2193</t>
+        </is>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="A2198" s="0" t="n">
+        <v>2194</v>
+      </c>
+      <c r="B2198" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2194</t>
+        </is>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" s="0" t="n">
+        <v>2195</v>
+      </c>
+      <c r="B2199" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2195</t>
+        </is>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" s="0" t="n">
+        <v>2196</v>
+      </c>
+      <c r="B2200" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2196</t>
+        </is>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" s="0" t="n">
+        <v>2197</v>
+      </c>
+      <c r="B2201" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2197</t>
+        </is>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" s="0" t="n">
+        <v>2198</v>
+      </c>
+      <c r="B2202" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2198</t>
+        </is>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" s="0" t="n">
+        <v>2199</v>
+      </c>
+      <c r="B2203" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2199</t>
+        </is>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" s="0" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B2204" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" s="0" t="n">
+        <v>2201</v>
+      </c>
+      <c r="B2205" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2201</t>
+        </is>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" s="0" t="n">
+        <v>2202</v>
+      </c>
+      <c r="B2206" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2202</t>
+        </is>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" s="0" t="n">
+        <v>2203</v>
+      </c>
+      <c r="B2207" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2203</t>
+        </is>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208" s="0" t="n">
+        <v>2204</v>
+      </c>
+      <c r="B2208" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2204</t>
+        </is>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="A2209" s="0" t="n">
+        <v>2205</v>
+      </c>
+      <c r="B2209" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2205</t>
+        </is>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" s="0" t="n">
+        <v>2206</v>
+      </c>
+      <c r="B2210" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2206</t>
+        </is>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="A2211" s="0" t="n">
+        <v>2207</v>
+      </c>
+      <c r="B2211" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2207</t>
+        </is>
+      </c>
+    </row>
+    <row r="2212">
+      <c r="A2212" s="0" t="n">
+        <v>2208</v>
+      </c>
+      <c r="B2212" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2208</t>
+        </is>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213" s="0" t="n">
+        <v>2209</v>
+      </c>
+      <c r="B2213" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2209</t>
+        </is>
+      </c>
+    </row>
+    <row r="2214">
+      <c r="A2214" s="0" t="n">
+        <v>2210</v>
+      </c>
+      <c r="B2214" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2210</t>
+        </is>
+      </c>
+    </row>
+    <row r="2215">
+      <c r="A2215" s="0" t="n">
+        <v>2211</v>
+      </c>
+      <c r="B2215" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2211</t>
+        </is>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216" s="0" t="n">
+        <v>2213</v>
+      </c>
+      <c r="B2216" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2213</t>
+        </is>
+      </c>
+    </row>
+    <row r="2217">
+      <c r="A2217" s="0" t="n">
+        <v>2214</v>
+      </c>
+      <c r="B2217" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2214</t>
+        </is>
+      </c>
+    </row>
+    <row r="2218">
+      <c r="A2218" s="0" t="n">
+        <v>2212</v>
+      </c>
+      <c r="B2218" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2212</t>
+        </is>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="A2219" s="0" t="n">
+        <v>2215</v>
+      </c>
+      <c r="B2219" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2215</t>
+        </is>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220" s="0" t="n">
+        <v>2216</v>
+      </c>
+      <c r="B2220" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2216</t>
+        </is>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" s="0" t="n">
+        <v>2217</v>
+      </c>
+      <c r="B2221" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2217</t>
+        </is>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" s="0" t="n">
+        <v>2218</v>
+      </c>
+      <c r="B2222" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2218</t>
+        </is>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" s="0" t="n">
+        <v>2219</v>
+      </c>
+      <c r="B2223" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2219</t>
+        </is>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224" s="0" t="n">
+        <v>2220</v>
+      </c>
+      <c r="B2224" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2220</t>
+        </is>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225" s="0" t="n">
+        <v>2221</v>
+      </c>
+      <c r="B2225" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2221</t>
+        </is>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="A2226" s="0" t="n">
+        <v>2222</v>
+      </c>
+      <c r="B2226" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2222</t>
+        </is>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" s="0" t="n">
+        <v>2223</v>
+      </c>
+      <c r="B2227" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2223</t>
+        </is>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" s="0" t="n">
+        <v>2224</v>
+      </c>
+      <c r="B2228" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2224</t>
+        </is>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" s="0" t="n">
+        <v>2225</v>
+      </c>
+      <c r="B2229" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2225</t>
+        </is>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" s="0" t="n">
+        <v>2226</v>
+      </c>
+      <c r="B2230" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2226</t>
+        </is>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231" s="0" t="n">
+        <v>2227</v>
+      </c>
+      <c r="B2231" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2227</t>
+        </is>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232" s="0" t="n">
+        <v>2228</v>
+      </c>
+      <c r="B2232" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2228</t>
+        </is>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" s="0" t="n">
+        <v>2229</v>
+      </c>
+      <c r="B2233" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2229</t>
+        </is>
+      </c>
+    </row>
+    <row r="2234">
+      <c r="A2234" s="0" t="n">
+        <v>2230</v>
+      </c>
+      <c r="B2234" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2230</t>
+        </is>
+      </c>
+    </row>
+    <row r="2235">
+      <c r="A2235" s="0" t="n">
+        <v>2231</v>
+      </c>
+      <c r="B2235" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2231</t>
+        </is>
+      </c>
+    </row>
+    <row r="2236">
+      <c r="A2236" s="0" t="n">
+        <v>2232</v>
+      </c>
+      <c r="B2236" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2232</t>
+        </is>
+      </c>
+    </row>
+    <row r="2237">
+      <c r="A2237" s="0" t="n">
+        <v>2233</v>
+      </c>
+      <c r="B2237" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2233</t>
+        </is>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="A2238" s="0" t="n">
+        <v>2234</v>
+      </c>
+      <c r="B2238" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2234</t>
+        </is>
+      </c>
+    </row>
+    <row r="2239">
+      <c r="A2239" s="0" t="n">
+        <v>2235</v>
+      </c>
+      <c r="B2239" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2235</t>
+        </is>
+      </c>
+    </row>
+    <row r="2240">
+      <c r="A2240" s="0" t="n">
+        <v>2236</v>
+      </c>
+      <c r="B2240" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2236</t>
+        </is>
+      </c>
+    </row>
+    <row r="2241">
+      <c r="A2241" s="0" t="n">
+        <v>2237</v>
+      </c>
+      <c r="B2241" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2237</t>
+        </is>
+      </c>
+    </row>
+    <row r="2242">
+      <c r="A2242" s="0" t="n">
+        <v>2238</v>
+      </c>
+      <c r="B2242" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2238</t>
+        </is>
+      </c>
+    </row>
+    <row r="2243">
+      <c r="A2243" s="0" t="n">
+        <v>2239</v>
+      </c>
+      <c r="B2243" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2239</t>
+        </is>
+      </c>
+    </row>
+    <row r="2244">
+      <c r="A2244" s="0" t="n">
+        <v>2240</v>
+      </c>
+      <c r="B2244" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2240</t>
+        </is>
+      </c>
+    </row>
+    <row r="2245">
+      <c r="A2245" s="0" t="n">
+        <v>2241</v>
+      </c>
+      <c r="B2245" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2241</t>
+        </is>
+      </c>
+    </row>
+    <row r="2246">
+      <c r="A2246" s="0" t="n">
+        <v>2242</v>
+      </c>
+      <c r="B2246" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2242</t>
+        </is>
+      </c>
+    </row>
+    <row r="2247">
+      <c r="A2247" s="0" t="n">
+        <v>2244</v>
+      </c>
+      <c r="B2247" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2244</t>
+        </is>
+      </c>
+    </row>
+    <row r="2248">
+      <c r="A2248" s="0" t="n">
+        <v>2243</v>
+      </c>
+      <c r="B2248" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2243</t>
+        </is>
+      </c>
+    </row>
+    <row r="2249">
+      <c r="A2249" s="0" t="n">
+        <v>2245</v>
+      </c>
+      <c r="B2249" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2245</t>
+        </is>
+      </c>
+    </row>
+    <row r="2250">
+      <c r="A2250" s="0" t="n">
+        <v>2246</v>
+      </c>
+      <c r="B2250" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2246</t>
+        </is>
+      </c>
+    </row>
+    <row r="2251">
+      <c r="A2251" s="0" t="n">
+        <v>2247</v>
+      </c>
+      <c r="B2251" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2247</t>
+        </is>
+      </c>
+    </row>
+    <row r="2252">
+      <c r="A2252" s="0" t="n">
+        <v>2248</v>
+      </c>
+      <c r="B2252" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2248</t>
+        </is>
+      </c>
+    </row>
+    <row r="2253">
+      <c r="A2253" s="0" t="n">
+        <v>2249</v>
+      </c>
+      <c r="B2253" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2249</t>
+        </is>
+      </c>
+    </row>
+    <row r="2254">
+      <c r="A2254" s="0" t="n">
+        <v>2250</v>
+      </c>
+      <c r="B2254" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2250</t>
+        </is>
+      </c>
+    </row>
+    <row r="2255">
+      <c r="A2255" s="0" t="n">
+        <v>2251</v>
+      </c>
+      <c r="B2255" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2251</t>
+        </is>
+      </c>
+    </row>
+    <row r="2256">
+      <c r="A2256" s="0" t="n">
+        <v>2252</v>
+      </c>
+      <c r="B2256" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2252</t>
+        </is>
+      </c>
+    </row>
+    <row r="2257">
+      <c r="A2257" s="0" t="n">
+        <v>2253</v>
+      </c>
+      <c r="B2257" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2253</t>
+        </is>
+      </c>
+    </row>
+    <row r="2258">
+      <c r="A2258" s="0" t="n">
+        <v>2255</v>
+      </c>
+      <c r="B2258" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2255</t>
+        </is>
+      </c>
+    </row>
+    <row r="2259">
+      <c r="A2259" s="0" t="n">
+        <v>2254</v>
+      </c>
+      <c r="B2259" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2254</t>
+        </is>
+      </c>
+    </row>
+    <row r="2260">
+      <c r="A2260" s="0" t="n">
+        <v>2256</v>
+      </c>
+      <c r="B2260" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2256</t>
+        </is>
+      </c>
+    </row>
+    <row r="2261">
+      <c r="A2261" s="0" t="n">
+        <v>2257</v>
+      </c>
+      <c r="B2261" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2257</t>
+        </is>
+      </c>
+    </row>
+    <row r="2262">
+      <c r="A2262" s="0" t="n">
+        <v>2258</v>
+      </c>
+      <c r="B2262" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2258</t>
+        </is>
+      </c>
+    </row>
+    <row r="2263">
+      <c r="A2263" s="0" t="n">
+        <v>2259</v>
+      </c>
+      <c r="B2263" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2259</t>
+        </is>
+      </c>
+    </row>
+    <row r="2264">
+      <c r="A2264" s="0" t="n">
+        <v>2261</v>
+      </c>
+      <c r="B2264" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2261</t>
+        </is>
+      </c>
+    </row>
+    <row r="2265">
+      <c r="A2265" s="0" t="n">
+        <v>2260</v>
+      </c>
+      <c r="B2265" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2260</t>
+        </is>
+      </c>
+    </row>
+    <row r="2266">
+      <c r="A2266" s="0" t="n">
+        <v>2262</v>
+      </c>
+      <c r="B2266" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2262</t>
+        </is>
+      </c>
+    </row>
+    <row r="2267">
+      <c r="A2267" s="0" t="n">
+        <v>2263</v>
+      </c>
+      <c r="B2267" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2263</t>
+        </is>
+      </c>
+    </row>
+    <row r="2268">
+      <c r="A2268" s="0" t="n">
+        <v>2264</v>
+      </c>
+      <c r="B2268" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2264</t>
+        </is>
+      </c>
+    </row>
+    <row r="2269">
+      <c r="A2269" s="0" t="n">
+        <v>2265</v>
+      </c>
+      <c r="B2269" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2265</t>
+        </is>
+      </c>
+    </row>
+    <row r="2270">
+      <c r="A2270" s="0" t="n">
+        <v>2266</v>
+      </c>
+      <c r="B2270" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2266</t>
+        </is>
+      </c>
+    </row>
+    <row r="2271">
+      <c r="A2271" s="0" t="n">
+        <v>2267</v>
+      </c>
+      <c r="B2271" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2267</t>
+        </is>
+      </c>
+    </row>
+    <row r="2272">
+      <c r="A2272" s="0" t="n">
+        <v>2268</v>
+      </c>
+      <c r="B2272" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2268</t>
+        </is>
+      </c>
+    </row>
+    <row r="2273">
+      <c r="A2273" s="0" t="n">
+        <v>2269</v>
+      </c>
+      <c r="B2273" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2269</t>
+        </is>
+      </c>
+    </row>
+    <row r="2274">
+      <c r="A2274" s="0" t="n">
+        <v>2270</v>
+      </c>
+      <c r="B2274" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2270</t>
+        </is>
+      </c>
+    </row>
+    <row r="2275">
+      <c r="A2275" s="0" t="n">
+        <v>2271</v>
+      </c>
+      <c r="B2275" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2271</t>
+        </is>
+      </c>
+    </row>
+    <row r="2276">
+      <c r="A2276" s="0" t="n">
+        <v>2272</v>
+      </c>
+      <c r="B2276" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2272</t>
+        </is>
+      </c>
+    </row>
+    <row r="2277">
+      <c r="A2277" s="0" t="n">
+        <v>2273</v>
+      </c>
+      <c r="B2277" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2273</t>
+        </is>
+      </c>
+    </row>
+    <row r="2278">
+      <c r="A2278" s="0" t="n">
+        <v>2274</v>
+      </c>
+      <c r="B2278" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2274</t>
+        </is>
+      </c>
+    </row>
+    <row r="2279">
+      <c r="A2279" s="0" t="n">
+        <v>2275</v>
+      </c>
+      <c r="B2279" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2275</t>
+        </is>
+      </c>
+    </row>
+    <row r="2280">
+      <c r="A2280" s="0" t="n">
+        <v>2276</v>
+      </c>
+      <c r="B2280" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2276</t>
+        </is>
+      </c>
+    </row>
+    <row r="2281">
+      <c r="A2281" s="0" t="n">
+        <v>2277</v>
+      </c>
+      <c r="B2281" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2277</t>
+        </is>
+      </c>
+    </row>
+    <row r="2282">
+      <c r="A2282" s="0" t="n">
+        <v>2278</v>
+      </c>
+      <c r="B2282" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2278</t>
+        </is>
+      </c>
+    </row>
+    <row r="2283">
+      <c r="A2283" s="0" t="n">
+        <v>2280</v>
+      </c>
+      <c r="B2283" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2280</t>
+        </is>
+      </c>
+    </row>
+    <row r="2284">
+      <c r="A2284" s="0" t="n">
+        <v>2279</v>
+      </c>
+      <c r="B2284" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2279</t>
+        </is>
+      </c>
+    </row>
+    <row r="2285">
+      <c r="A2285" s="0" t="n">
+        <v>2281</v>
+      </c>
+      <c r="B2285" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2281</t>
+        </is>
+      </c>
+    </row>
+    <row r="2286">
+      <c r="A2286" s="0" t="n">
+        <v>2282</v>
+      </c>
+      <c r="B2286" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2282</t>
+        </is>
+      </c>
+    </row>
+    <row r="2287">
+      <c r="A2287" s="0" t="n">
+        <v>2283</v>
+      </c>
+      <c r="B2287" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2283</t>
+        </is>
+      </c>
+    </row>
+    <row r="2288">
+      <c r="A2288" s="0" t="n">
+        <v>2284</v>
+      </c>
+      <c r="B2288" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2284</t>
+        </is>
+      </c>
+    </row>
+    <row r="2289">
+      <c r="A2289" s="0" t="n">
+        <v>2285</v>
+      </c>
+      <c r="B2289" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2285</t>
+        </is>
+      </c>
+    </row>
+    <row r="2290">
+      <c r="A2290" s="0" t="n">
+        <v>2286</v>
+      </c>
+      <c r="B2290" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2286</t>
+        </is>
+      </c>
+    </row>
+    <row r="2291">
+      <c r="A2291" s="0" t="n">
+        <v>2287</v>
+      </c>
+      <c r="B2291" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2287</t>
+        </is>
+      </c>
+    </row>
+    <row r="2292">
+      <c r="A2292" s="0" t="n">
+        <v>2288</v>
+      </c>
+      <c r="B2292" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2288</t>
+        </is>
+      </c>
+    </row>
+    <row r="2293">
+      <c r="A2293" s="0" t="n">
+        <v>2289</v>
+      </c>
+      <c r="B2293" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2289</t>
+        </is>
+      </c>
+    </row>
+    <row r="2294">
+      <c r="A2294" s="0" t="n">
+        <v>2290</v>
+      </c>
+      <c r="B2294" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2290</t>
+        </is>
+      </c>
+    </row>
+    <row r="2295">
+      <c r="A2295" s="0" t="n">
+        <v>2291</v>
+      </c>
+      <c r="B2295" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2291</t>
+        </is>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="A2296" s="0" t="n">
+        <v>2293</v>
+      </c>
+      <c r="B2296" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2293</t>
+        </is>
+      </c>
+    </row>
+    <row r="2297">
+      <c r="A2297" s="0" t="n">
+        <v>2292</v>
+      </c>
+      <c r="B2297" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2292</t>
+        </is>
+      </c>
+    </row>
+    <row r="2298">
+      <c r="A2298" s="0" t="n">
+        <v>2294</v>
+      </c>
+      <c r="B2298" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2294</t>
+        </is>
+      </c>
+    </row>
+    <row r="2299">
+      <c r="A2299" s="0" t="n">
+        <v>2295</v>
+      </c>
+      <c r="B2299" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2295</t>
+        </is>
+      </c>
+    </row>
+    <row r="2300">
+      <c r="A2300" s="0" t="n">
+        <v>2296</v>
+      </c>
+      <c r="B2300" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2296</t>
+        </is>
+      </c>
+    </row>
+    <row r="2301">
+      <c r="A2301" s="0" t="n">
+        <v>2297</v>
+      </c>
+      <c r="B2301" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2297</t>
+        </is>
+      </c>
+    </row>
+    <row r="2302">
+      <c r="A2302" s="0" t="n">
+        <v>2298</v>
+      </c>
+      <c r="B2302" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2298</t>
+        </is>
+      </c>
+    </row>
+    <row r="2303">
+      <c r="A2303" s="0" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B2303" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2300</t>
+        </is>
+      </c>
+    </row>
+    <row r="2304">
+      <c r="A2304" s="0" t="n">
+        <v>2299</v>
+      </c>
+      <c r="B2304" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2299</t>
+        </is>
+      </c>
+    </row>
+    <row r="2305">
+      <c r="A2305" s="0" t="n">
+        <v>2301</v>
+      </c>
+      <c r="B2305" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2301</t>
+        </is>
+      </c>
+    </row>
+    <row r="2306">
+      <c r="A2306" s="0" t="n">
+        <v>2302</v>
+      </c>
+      <c r="B2306" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2302</t>
+        </is>
+      </c>
+    </row>
+    <row r="2307">
+      <c r="A2307" s="0" t="n">
+        <v>2303</v>
+      </c>
+      <c r="B2307" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2303</t>
+        </is>
+      </c>
+    </row>
+    <row r="2308">
+      <c r="A2308" s="0" t="n">
+        <v>2304</v>
+      </c>
+      <c r="B2308" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2304</t>
+        </is>
+      </c>
+    </row>
+    <row r="2309">
+      <c r="A2309" s="0" t="n">
+        <v>2306</v>
+      </c>
+      <c r="B2309" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2306</t>
+        </is>
+      </c>
+    </row>
+    <row r="2310">
+      <c r="A2310" s="0" t="n">
+        <v>2305</v>
+      </c>
+      <c r="B2310" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2305</t>
+        </is>
+      </c>
+    </row>
+    <row r="2311">
+      <c r="A2311" s="0" t="n">
+        <v>2307</v>
+      </c>
+      <c r="B2311" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2307</t>
+        </is>
+      </c>
+    </row>
+    <row r="2312">
+      <c r="A2312" s="0" t="n">
+        <v>2308</v>
+      </c>
+      <c r="B2312" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2308</t>
+        </is>
+      </c>
+    </row>
+    <row r="2313">
+      <c r="A2313" s="0" t="n">
+        <v>2309</v>
+      </c>
+      <c r="B2313" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2309</t>
+        </is>
+      </c>
+    </row>
+    <row r="2314">
+      <c r="A2314" s="0" t="n">
+        <v>2310</v>
+      </c>
+      <c r="B2314" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2310</t>
+        </is>
+      </c>
+    </row>
+    <row r="2315">
+      <c r="A2315" s="0" t="n">
+        <v>2311</v>
+      </c>
+      <c r="B2315" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2311</t>
+        </is>
+      </c>
+    </row>
+    <row r="2316">
+      <c r="A2316" s="0" t="n">
+        <v>2312</v>
+      </c>
+      <c r="B2316" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2312</t>
+        </is>
+      </c>
+    </row>
+    <row r="2317">
+      <c r="A2317" s="0" t="n">
+        <v>2313</v>
+      </c>
+      <c r="B2317" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2313</t>
+        </is>
+      </c>
+    </row>
+    <row r="2318">
+      <c r="A2318" s="0" t="n">
+        <v>2314</v>
+      </c>
+      <c r="B2318" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2314</t>
+        </is>
+      </c>
+    </row>
+    <row r="2319">
+      <c r="A2319" s="0" t="n">
+        <v>2315</v>
+      </c>
+      <c r="B2319" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2315</t>
+        </is>
+      </c>
+    </row>
+    <row r="2320">
+      <c r="A2320" s="0" t="n">
+        <v>2316</v>
+      </c>
+      <c r="B2320" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2316</t>
+        </is>
+      </c>
+    </row>
+    <row r="2321">
+      <c r="A2321" s="0" t="n">
+        <v>2318</v>
+      </c>
+      <c r="B2321" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2318</t>
+        </is>
+      </c>
+    </row>
+    <row r="2322">
+      <c r="A2322" s="0" t="n">
+        <v>2317</v>
+      </c>
+      <c r="B2322" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2317</t>
+        </is>
+      </c>
+    </row>
+    <row r="2323">
+      <c r="A2323" s="0" t="n">
+        <v>2320</v>
+      </c>
+      <c r="B2323" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2320</t>
+        </is>
+      </c>
+    </row>
+    <row r="2324">
+      <c r="A2324" s="0" t="n">
+        <v>2319</v>
+      </c>
+      <c r="B2324" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2319</t>
+        </is>
+      </c>
+    </row>
+    <row r="2325">
+      <c r="A2325" s="0" t="n">
+        <v>2321</v>
+      </c>
+      <c r="B2325" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2321</t>
+        </is>
+      </c>
+    </row>
+    <row r="2326">
+      <c r="A2326" s="0" t="n">
+        <v>2323</v>
+      </c>
+      <c r="B2326" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2323</t>
+        </is>
+      </c>
+    </row>
+    <row r="2327">
+      <c r="A2327" s="0" t="n">
+        <v>2322</v>
+      </c>
+      <c r="B2327" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2322</t>
+        </is>
+      </c>
+    </row>
+    <row r="2328">
+      <c r="A2328" s="0" t="n">
+        <v>2324</v>
+      </c>
+      <c r="B2328" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2324</t>
+        </is>
+      </c>
+    </row>
+    <row r="2329">
+      <c r="A2329" s="0" t="n">
+        <v>2326</v>
+      </c>
+      <c r="B2329" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2326</t>
+        </is>
+      </c>
+    </row>
+    <row r="2330">
+      <c r="A2330" s="0" t="n">
+        <v>2325</v>
+      </c>
+      <c r="B2330" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2325</t>
+        </is>
+      </c>
+    </row>
+    <row r="2331">
+      <c r="A2331" s="0" t="n">
+        <v>2327</v>
+      </c>
+      <c r="B2331" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2327</t>
+        </is>
+      </c>
+    </row>
+    <row r="2332">
+      <c r="A2332" s="0" t="n">
+        <v>2329</v>
+      </c>
+      <c r="B2332" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2329</t>
+        </is>
+      </c>
+    </row>
+    <row r="2333">
+      <c r="A2333" s="0" t="n">
+        <v>2328</v>
+      </c>
+      <c r="B2333" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2328</t>
+        </is>
+      </c>
+    </row>
+    <row r="2334">
+      <c r="A2334" s="0" t="n">
+        <v>2330</v>
+      </c>
+      <c r="B2334" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2330</t>
+        </is>
+      </c>
+    </row>
+    <row r="2335">
+      <c r="A2335" s="0" t="n">
+        <v>2331</v>
+      </c>
+      <c r="B2335" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2331</t>
+        </is>
+      </c>
+    </row>
+    <row r="2336">
+      <c r="A2336" s="0" t="n">
+        <v>2332</v>
+      </c>
+      <c r="B2336" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2332</t>
+        </is>
+      </c>
+    </row>
+    <row r="2337">
+      <c r="A2337" s="0" t="n">
+        <v>2333</v>
+      </c>
+      <c r="B2337" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2333</t>
+        </is>
+      </c>
+    </row>
+    <row r="2338">
+      <c r="A2338" s="0" t="n">
+        <v>2335</v>
+      </c>
+      <c r="B2338" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2335</t>
+        </is>
+      </c>
+    </row>
+    <row r="2339">
+      <c r="A2339" s="0" t="n">
+        <v>2334</v>
+      </c>
+      <c r="B2339" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2334</t>
+        </is>
+      </c>
+    </row>
+    <row r="2340">
+      <c r="A2340" s="0" t="n">
+        <v>2336</v>
+      </c>
+      <c r="B2340" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2336</t>
+        </is>
+      </c>
+    </row>
+    <row r="2341">
+      <c r="A2341" s="0" t="n">
+        <v>2337</v>
+      </c>
+      <c r="B2341" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2337</t>
+        </is>
+      </c>
+    </row>
+    <row r="2342">
+      <c r="A2342" s="0" t="n">
+        <v>2338</v>
+      </c>
+      <c r="B2342" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2338</t>
+        </is>
+      </c>
+    </row>
+    <row r="2343">
+      <c r="A2343" s="0" t="n">
+        <v>2339</v>
+      </c>
+      <c r="B2343" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2339</t>
+        </is>
+      </c>
+    </row>
+    <row r="2344">
+      <c r="A2344" s="0" t="n">
+        <v>2340</v>
+      </c>
+      <c r="B2344" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2340</t>
+        </is>
+      </c>
+    </row>
+    <row r="2345">
+      <c r="A2345" s="0" t="n">
+        <v>2341</v>
+      </c>
+      <c r="B2345" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2341</t>
+        </is>
+      </c>
+    </row>
+    <row r="2346">
+      <c r="A2346" s="0" t="n">
+        <v>2343</v>
+      </c>
+      <c r="B2346" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2343</t>
+        </is>
+      </c>
+    </row>
+    <row r="2347">
+      <c r="A2347" s="0" t="n">
+        <v>2342</v>
+      </c>
+      <c r="B2347" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2342</t>
+        </is>
+      </c>
+    </row>
+    <row r="2348">
+      <c r="A2348" s="0" t="n">
+        <v>2344</v>
+      </c>
+      <c r="B2348" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2344</t>
+        </is>
+      </c>
+    </row>
+    <row r="2349">
+      <c r="A2349" s="0" t="n">
+        <v>2345</v>
+      </c>
+      <c r="B2349" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2345</t>
+        </is>
+      </c>
+    </row>
+    <row r="2350">
+      <c r="A2350" s="0" t="n">
+        <v>2346</v>
+      </c>
+      <c r="B2350" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2346</t>
+        </is>
+      </c>
+    </row>
+    <row r="2351">
+      <c r="A2351" s="0" t="n">
+        <v>2347</v>
+      </c>
+      <c r="B2351" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2347</t>
+        </is>
+      </c>
+    </row>
+    <row r="2352">
+      <c r="A2352" s="0" t="n">
+        <v>2348</v>
+      </c>
+      <c r="B2352" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2348</t>
+        </is>
+      </c>
+    </row>
+    <row r="2353">
+      <c r="A2353" s="0" t="n">
+        <v>2349</v>
+      </c>
+      <c r="B2353" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2349</t>
+        </is>
+      </c>
+    </row>
+    <row r="2354">
+      <c r="A2354" s="0" t="n">
+        <v>2350</v>
+      </c>
+      <c r="B2354" s="0" t="inlineStr">
+        <is>
+          <t>asdadasdasdfff</t>
+        </is>
+      </c>
+    </row>
+    <row r="2355">
+      <c r="A2355" s="0" t="n">
+        <v>2351</v>
+      </c>
+      <c r="B2355" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2351</t>
+        </is>
+      </c>
+    </row>
+    <row r="2356">
+      <c r="A2356" s="0" t="n">
+        <v>2352</v>
+      </c>
+      <c r="B2356" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2352</t>
+        </is>
+      </c>
+    </row>
+    <row r="2357">
+      <c r="A2357" s="0" t="n">
+        <v>2353</v>
+      </c>
+      <c r="B2357" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2353</t>
+        </is>
+      </c>
+    </row>
+    <row r="2358">
+      <c r="A2358" s="0" t="n">
+        <v>2354</v>
+      </c>
+      <c r="B2358" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2354</t>
+        </is>
+      </c>
+    </row>
+    <row r="2359">
+      <c r="A2359" s="0" t="n">
+        <v>2355</v>
+      </c>
+      <c r="B2359" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2355</t>
+        </is>
+      </c>
+    </row>
+    <row r="2360">
+      <c r="A2360" s="0" t="n">
+        <v>2356</v>
+      </c>
+      <c r="B2360" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2356</t>
+        </is>
+      </c>
+    </row>
+    <row r="2361">
+      <c r="A2361" s="0" t="n">
+        <v>2357</v>
+      </c>
+      <c r="B2361" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2357</t>
+        </is>
+      </c>
+    </row>
+    <row r="2362">
+      <c r="A2362" s="0" t="n">
+        <v>2358</v>
+      </c>
+      <c r="B2362" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2358</t>
+        </is>
+      </c>
+    </row>
+    <row r="2363">
+      <c r="A2363" s="0" t="n">
+        <v>2360</v>
+      </c>
+      <c r="B2363" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2360</t>
+        </is>
+      </c>
+    </row>
+    <row r="2364">
+      <c r="A2364" s="0" t="n">
+        <v>2359</v>
+      </c>
+      <c r="B2364" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2359</t>
+        </is>
+      </c>
+    </row>
+    <row r="2365">
+      <c r="A2365" s="0" t="n">
+        <v>2361</v>
+      </c>
+      <c r="B2365" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2361</t>
+        </is>
+      </c>
+    </row>
+    <row r="2366">
+      <c r="A2366" s="0" t="n">
+        <v>2362</v>
+      </c>
+      <c r="B2366" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2362</t>
+        </is>
+      </c>
+    </row>
+    <row r="2367">
+      <c r="A2367" s="0" t="n">
+        <v>2363</v>
+      </c>
+      <c r="B2367" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2363</t>
+        </is>
+      </c>
+    </row>
+    <row r="2368">
+      <c r="A2368" s="0" t="n">
+        <v>2365</v>
+      </c>
+      <c r="B2368" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2365</t>
+        </is>
+      </c>
+    </row>
+    <row r="2369">
+      <c r="A2369" s="0" t="n">
+        <v>2364</v>
+      </c>
+      <c r="B2369" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2364</t>
+        </is>
+      </c>
+    </row>
+    <row r="2370">
+      <c r="A2370" s="0" t="n">
+        <v>2366</v>
+      </c>
+      <c r="B2370" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2366</t>
+        </is>
+      </c>
+    </row>
+    <row r="2371">
+      <c r="A2371" s="0" t="n">
+        <v>2367</v>
+      </c>
+      <c r="B2371" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2367</t>
+        </is>
+      </c>
+    </row>
+    <row r="2372">
+      <c r="A2372" s="0" t="n">
+        <v>2368</v>
+      </c>
+      <c r="B2372" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2368</t>
+        </is>
+      </c>
+    </row>
+    <row r="2373">
+      <c r="A2373" s="0" t="n">
+        <v>2369</v>
+      </c>
+      <c r="B2373" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2369</t>
+        </is>
+      </c>
+    </row>
+    <row r="2374">
+      <c r="A2374" s="0" t="n">
+        <v>2370</v>
+      </c>
+      <c r="B2374" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2370</t>
+        </is>
+      </c>
+    </row>
+    <row r="2375">
+      <c r="A2375" s="0" t="n">
+        <v>2371</v>
+      </c>
+      <c r="B2375" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2371</t>
+        </is>
+      </c>
+    </row>
+    <row r="2376">
+      <c r="A2376" s="0" t="n">
+        <v>2372</v>
+      </c>
+      <c r="B2376" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2372</t>
+        </is>
+      </c>
+    </row>
+    <row r="2377">
+      <c r="A2377" s="0" t="n">
+        <v>2373</v>
+      </c>
+      <c r="B2377" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2373</t>
+        </is>
+      </c>
+    </row>
+    <row r="2378">
+      <c r="A2378" s="0" t="n">
+        <v>2374</v>
+      </c>
+      <c r="B2378" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2374</t>
+        </is>
+      </c>
+    </row>
+    <row r="2379">
+      <c r="A2379" s="0" t="n">
+        <v>2375</v>
+      </c>
+      <c r="B2379" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2375</t>
+        </is>
+      </c>
+    </row>
+    <row r="2380">
+      <c r="A2380" s="0" t="n">
+        <v>2376</v>
+      </c>
+      <c r="B2380" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2376</t>
+        </is>
+      </c>
+    </row>
+    <row r="2381">
+      <c r="A2381" s="0" t="n">
+        <v>2377</v>
+      </c>
+      <c r="B2381" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2377</t>
+        </is>
+      </c>
+    </row>
+    <row r="2382">
+      <c r="A2382" s="0" t="n">
+        <v>2378</v>
+      </c>
+      <c r="B2382" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2378</t>
+        </is>
+      </c>
+    </row>
+    <row r="2383">
+      <c r="A2383" s="0" t="n">
+        <v>2379</v>
+      </c>
+      <c r="B2383" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2379</t>
+        </is>
+      </c>
+    </row>
+    <row r="2384">
+      <c r="A2384" s="0" t="n">
+        <v>2380</v>
+      </c>
+      <c r="B2384" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2380</t>
+        </is>
+      </c>
+    </row>
+    <row r="2385">
+      <c r="A2385" s="0" t="n">
+        <v>2381</v>
+      </c>
+      <c r="B2385" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2381</t>
+        </is>
+      </c>
+    </row>
+    <row r="2386">
+      <c r="A2386" s="0" t="n">
+        <v>2383</v>
+      </c>
+      <c r="B2386" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2383</t>
+        </is>
+      </c>
+    </row>
+    <row r="2387">
+      <c r="A2387" s="0" t="n">
+        <v>2382</v>
+      </c>
+      <c r="B2387" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2382</t>
+        </is>
+      </c>
+    </row>
+    <row r="2388">
+      <c r="A2388" s="0" t="n">
+        <v>2384</v>
+      </c>
+      <c r="B2388" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2384</t>
+        </is>
+      </c>
+    </row>
+    <row r="2389">
+      <c r="A2389" s="0" t="n">
+        <v>2385</v>
+      </c>
+      <c r="B2389" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2385</t>
+        </is>
+      </c>
+    </row>
+    <row r="2390">
+      <c r="A2390" s="0" t="n">
+        <v>2386</v>
+      </c>
+      <c r="B2390" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2386</t>
+        </is>
+      </c>
+    </row>
+    <row r="2391">
+      <c r="A2391" s="0" t="n">
+        <v>2387</v>
+      </c>
+      <c r="B2391" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2387</t>
+        </is>
+      </c>
+    </row>
+    <row r="2392">
+      <c r="A2392" s="0" t="n">
+        <v>2388</v>
+      </c>
+      <c r="B2392" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2388</t>
+        </is>
+      </c>
+    </row>
+    <row r="2393">
+      <c r="A2393" s="0" t="n">
+        <v>2389</v>
+      </c>
+      <c r="B2393" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2389</t>
+        </is>
+      </c>
+    </row>
+    <row r="2394">
+      <c r="A2394" s="0" t="n">
+        <v>2390</v>
+      </c>
+      <c r="B2394" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2390</t>
+        </is>
+      </c>
+    </row>
+    <row r="2395">
+      <c r="A2395" s="0" t="n">
+        <v>2391</v>
+      </c>
+      <c r="B2395" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2391</t>
+        </is>
+      </c>
+    </row>
+    <row r="2396">
+      <c r="A2396" s="0" t="n">
+        <v>2393</v>
+      </c>
+      <c r="B2396" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2393</t>
+        </is>
+      </c>
+    </row>
+    <row r="2397">
+      <c r="A2397" s="0" t="n">
+        <v>2392</v>
+      </c>
+      <c r="B2397" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2392</t>
+        </is>
+      </c>
+    </row>
+    <row r="2398">
+      <c r="A2398" s="0" t="n">
+        <v>2394</v>
+      </c>
+      <c r="B2398" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2394</t>
+        </is>
+      </c>
+    </row>
+    <row r="2399">
+      <c r="A2399" s="0" t="n">
+        <v>2395</v>
+      </c>
+      <c r="B2399" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2395</t>
+        </is>
+      </c>
+    </row>
+    <row r="2400">
+      <c r="A2400" s="0" t="n">
+        <v>2396</v>
+      </c>
+      <c r="B2400" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2396</t>
+        </is>
+      </c>
+    </row>
+    <row r="2401">
+      <c r="A2401" s="0" t="n">
+        <v>2397</v>
+      </c>
+      <c r="B2401" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2397</t>
+        </is>
+      </c>
+    </row>
+    <row r="2402">
+      <c r="A2402" s="0" t="n">
+        <v>2399</v>
+      </c>
+      <c r="B2402" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2399</t>
+        </is>
+      </c>
+    </row>
+    <row r="2403">
+      <c r="A2403" s="0" t="n">
+        <v>2398</v>
+      </c>
+      <c r="B2403" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2398</t>
+        </is>
+      </c>
+    </row>
+    <row r="2404">
+      <c r="A2404" s="0" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B2404" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2400</t>
+        </is>
+      </c>
+    </row>
+    <row r="2405">
+      <c r="A2405" s="0" t="n">
+        <v>2403</v>
+      </c>
+      <c r="B2405" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2403</t>
+        </is>
+      </c>
+    </row>
+    <row r="2406">
+      <c r="A2406" s="0" t="n">
+        <v>2401</v>
+      </c>
+      <c r="B2406" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2401</t>
+        </is>
+      </c>
+    </row>
+    <row r="2407">
+      <c r="A2407" s="0" t="n">
+        <v>2402</v>
+      </c>
+      <c r="B2407" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2402</t>
+        </is>
+      </c>
+    </row>
+    <row r="2408">
+      <c r="A2408" s="0" t="n">
+        <v>2404</v>
+      </c>
+      <c r="B2408" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2404</t>
+        </is>
+      </c>
+    </row>
+    <row r="2409">
+      <c r="A2409" s="0" t="n">
+        <v>2405</v>
+      </c>
+      <c r="B2409" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2405</t>
+        </is>
+      </c>
+    </row>
+    <row r="2410">
+      <c r="A2410" s="0" t="n">
+        <v>2406</v>
+      </c>
+      <c r="B2410" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2406</t>
+        </is>
+      </c>
+    </row>
+    <row r="2411">
+      <c r="A2411" s="0" t="n">
+        <v>2407</v>
+      </c>
+      <c r="B2411" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2407</t>
+        </is>
+      </c>
+    </row>
+    <row r="2412">
+      <c r="A2412" s="0" t="n">
+        <v>2408</v>
+      </c>
+      <c r="B2412" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2408</t>
+        </is>
+      </c>
+    </row>
+    <row r="2413">
+      <c r="A2413" s="0" t="n">
+        <v>2409</v>
+      </c>
+      <c r="B2413" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2409</t>
+        </is>
+      </c>
+    </row>
+    <row r="2414">
+      <c r="A2414" s="0" t="n">
+        <v>2410</v>
+      </c>
+      <c r="B2414" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2410</t>
+        </is>
+      </c>
+    </row>
+    <row r="2415">
+      <c r="A2415" s="0" t="n">
+        <v>2411</v>
+      </c>
+      <c r="B2415" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2411</t>
+        </is>
+      </c>
+    </row>
+    <row r="2416">
+      <c r="A2416" s="0" t="n">
+        <v>2412</v>
+      </c>
+      <c r="B2416" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2412</t>
+        </is>
+      </c>
+    </row>
+    <row r="2417">
+      <c r="A2417" s="0" t="n">
+        <v>2413</v>
+      </c>
+      <c r="B2417" s="0" t="inlineStr">
+        <is>
+          <t>sgzyxxxc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2418">
+      <c r="A2418" s="0" t="n">
+        <v>2414</v>
+      </c>
+      <c r="B2418" s="0" t="inlineStr">
+        <is>
+          <t>sgzyxxxcvv</t>
+        </is>
+      </c>
+    </row>
+    <row r="2419">
+      <c r="A2419" s="0" t="n">
+        <v>2415</v>
+      </c>
+      <c r="B2419" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2415</t>
+        </is>
+      </c>
+    </row>
+    <row r="2420">
+      <c r="A2420" s="0" t="n">
+        <v>2416</v>
+      </c>
+      <c r="B2420" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2416</t>
+        </is>
+      </c>
+    </row>
+    <row r="2421">
+      <c r="A2421" s="0" t="n">
+        <v>2417</v>
+      </c>
+      <c r="B2421" s="0" t="inlineStr">
+        <is>
+          <t>form.username.data 2417</t>
+        </is>
+      </c>
+    </row>
+    <row r="2422">
+      <c r="A2422" s="0" t="n">
+        <v>2418</v>
+      </c>
+      <c r="B2422" s="0" t="inlineStr">
+        <is>
+          <t>白银</t>
+        </is>
+      </c>
+    </row>
+    <row r="2423">
+      <c r="A2423" s="0" t="n">
+        <v>2419</v>
+      </c>
+      <c r="B2423" s="0" t="inlineStr">
+        <is>
+          <t>白银2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2424">
+      <c r="A2424" s="0" t="n">
+        <v>2420</v>
+      </c>
+      <c r="B2424" s="0" t="inlineStr">
+        <is>
+          <t>5435345</t>
+        </is>
+      </c>
+    </row>
+    <row r="2425">
+      <c r="A2425" s="0" t="n">
+        <v>2421</v>
+      </c>
+      <c r="B2425" s="0" t="inlineStr">
+        <is>
+          <t>fff</t>
+        </is>
+      </c>
+    </row>
+    <row r="2426">
+      <c r="A2426" s="0" t="n">
+        <v>2422</v>
+      </c>
+      <c r="B2426" s="0" t="inlineStr">
+        <is>
+          <t>fffff</t>
+        </is>
+      </c>
+    </row>
+    <row r="2427">
+      <c r="A2427" s="0" t="n">
+        <v>2423</v>
+      </c>
+      <c r="B2427" s="0" t="inlineStr">
+        <is>
+          <t>正在托管{}，当前文本数量</t>
+        </is>
+      </c>
+    </row>
+    <row r="2428">
+      <c r="A2428" t="n">
+        <v>2424</v>
+      </c>
+      <c r="B2428" t="inlineStr">
+        <is>
+          <t>黄金4</t>
+        </is>
+      </c>
+    </row>
+    <row r="2429">
+      <c r="A2429" t="n">
+        <v>2425</v>
+      </c>
+      <c r="B2429" t="inlineStr">
+        <is>
+          <t>黄金345345</t>
+        </is>
+      </c>
+    </row>
+    <row r="2430">
+      <c r="A2430" t="n">
+        <v>2426</v>
+      </c>
+      <c r="B2430" t="inlineStr">
+        <is>
+          <t>黄金xxxxxx</t>
+        </is>
+      </c>
+    </row>
+    <row r="2431">
+      <c r="A2431" t="n">
+        <v>2427</v>
+      </c>
+      <c r="B2431" t="inlineStr">
+        <is>
+          <t>黄金xxxxxxcccc</t>
         </is>
       </c>
     </row>

--- a/Language.xlsx
+++ b/Language.xlsx
@@ -605,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2431"/>
+  <dimension ref="A1:D2464"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
@@ -24942,42 +24942,367 @@
       </c>
     </row>
     <row r="2428">
-      <c r="A2428" t="n">
+      <c r="A2428" s="0" t="n">
         <v>2424</v>
       </c>
-      <c r="B2428" t="inlineStr">
+      <c r="B2428" s="0" t="inlineStr">
         <is>
           <t>黄金4</t>
         </is>
       </c>
     </row>
     <row r="2429">
-      <c r="A2429" t="n">
+      <c r="A2429" s="0" t="n">
         <v>2425</v>
       </c>
-      <c r="B2429" t="inlineStr">
+      <c r="B2429" s="0" t="inlineStr">
         <is>
           <t>黄金345345</t>
         </is>
       </c>
     </row>
     <row r="2430">
-      <c r="A2430" t="n">
+      <c r="A2430" s="0" t="n">
         <v>2426</v>
       </c>
-      <c r="B2430" t="inlineStr">
+      <c r="B2430" s="0" t="inlineStr">
         <is>
           <t>黄金xxxxxx</t>
         </is>
       </c>
     </row>
     <row r="2431">
-      <c r="A2431" t="n">
+      <c r="A2431" s="0" t="n">
         <v>2427</v>
       </c>
-      <c r="B2431" t="inlineStr">
+      <c r="B2431" s="0" t="inlineStr">
         <is>
           <t>黄金xxxxxxcccc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2432">
+      <c r="A2432" s="0" t="n">
+        <v>2428</v>
+      </c>
+      <c r="B2432" s="0" t="inlineStr">
+        <is>
+          <t>使用后可以获得&lt;color=#67d940&gt;2000石料&lt;/color&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="2433">
+      <c r="A2433" s="0" t="n">
+        <v>2429</v>
+      </c>
+      <c r="B2433" s="0" t="inlineStr">
+        <is>
+          <t>使用后可以获得&lt;color=</t>
+        </is>
+      </c>
+    </row>
+    <row r="2434">
+      <c r="A2434" s="0" t="n">
+        <v>2430</v>
+      </c>
+      <c r="B2434" s="0" t="inlineStr">
+        <is>
+          <t>主要用于每日维护和竞投州府皇城，来源于势力所占城池</t>
+        </is>
+      </c>
+    </row>
+    <row r="2435">
+      <c r="A2435" s="0" t="n">
+        <v>2431</v>
+      </c>
+      <c r="B2435" s="0" t="inlineStr">
+        <is>
+          <t>环游者渠道</t>
+        </is>
+      </c>
+    </row>
+    <row r="2436">
+      <c r="A2436" s="0" t="n">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="2437">
+      <c r="A2437" s="0" t="n">
+        <v>2433</v>
+      </c>
+      <c r="B2437" s="0" t="inlineStr">
+        <is>
+          <t>#h10002:你们就是最近偷渡过来的那批人？ #p:偷渡？爷光明正大过来拿奖励的 #h10002:呵呵，奖励？你怕是不知道我们城有多坚固，你围一年也困不死 #h10040:主公，此城虽坚固，但地势不佳，资源必然不足以坚持太久，可围城 #h10066:还是直接攻城吧，在我眼里没啥坚固的城</t>
+        </is>
+      </c>
+    </row>
+    <row r="2438">
+      <c r="A2438" s="0" t="n">
+        <v>2434</v>
+      </c>
+      <c r="B2438" s="0" t="inlineStr">
+        <is>
+          <t>"#h10002:快看，大名家的爱女，我们终于找到了 #p:卧槽，这啥情况 #h10002:英雄，谢谢你们，我们会有报答的 #h10040:主公，看来是之前那个女子身份尊贵啊 #h10066:可惜了"</t>
+        </is>
+      </c>
+    </row>
+    <row r="2439">
+      <c r="A2439" s="0" t="n">
+        <v>2435</v>
+      </c>
+      <c r="B2439" s="0" t="inlineStr">
+        <is>
+          <t>招财进宝，最佳理财之路</t>
+        </is>
+      </c>
+    </row>
+    <row r="2440">
+      <c r="A2440" s="0" t="n">
+        <v>2436</v>
+      </c>
+      <c r="B2440" s="0" t="inlineStr">
+        <is>
+          <t>壮志饥餐胡虏肉，笑谈渴饮匈奴血</t>
+        </is>
+      </c>
+    </row>
+    <row r="2441">
+      <c r="A2441" s="0" t="n">
+        <v>2437</v>
+      </c>
+      <c r="B2441" s="0" t="inlineStr">
+        <is>
+          <t>名人堂</t>
+        </is>
+      </c>
+    </row>
+    <row r="2442">
+      <c r="A2442" s="0" t="n">
+        <v>2438</v>
+      </c>
+      <c r="B2442" s="0" t="inlineStr">
+        <is>
+          <t>单人押镖</t>
+        </is>
+      </c>
+    </row>
+    <row r="2443">
+      <c r="A2443" s="0" t="n">
+        <v>2439</v>
+      </c>
+      <c r="B2443" s="0" t="inlineStr">
+        <is>
+          <t>势力押镖</t>
+        </is>
+      </c>
+    </row>
+    <row r="2444">
+      <c r="A2444" s="0" t="n">
+        <v>2440</v>
+      </c>
+      <c r="B2444" s="0" t="inlineStr">
+        <is>
+          <t>大城投票</t>
+        </is>
+      </c>
+    </row>
+    <row r="2445">
+      <c r="A2445" s="0" t="n">
+        <v>2441</v>
+      </c>
+      <c r="B2445" s="0" t="inlineStr">
+        <is>
+          <t>大城战斗</t>
+        </is>
+      </c>
+    </row>
+    <row r="2446">
+      <c r="A2446" s="0" t="n">
+        <v>2442</v>
+      </c>
+      <c r="B2446" s="0" t="inlineStr">
+        <is>
+          <t>大城争夺</t>
+        </is>
+      </c>
+    </row>
+    <row r="2447">
+      <c r="A2447" s="0" t="n">
+        <v>2443</v>
+      </c>
+      <c r="B2447" s="0" t="inlineStr">
+        <is>
+          <t>聚宝盆</t>
+        </is>
+      </c>
+    </row>
+    <row r="2448">
+      <c r="A2448" s="0" t="n">
+        <v>2444</v>
+      </c>
+      <c r="B2448" s="0" t="inlineStr">
+        <is>
+          <t>外敌入侵</t>
+        </is>
+      </c>
+    </row>
+    <row r="2449">
+      <c r="A2449" s="0" t="n">
+        <v>2445</v>
+      </c>
+      <c r="B2449" s="0" t="inlineStr">
+        <is>
+          <t>外敌和平</t>
+        </is>
+      </c>
+    </row>
+    <row r="2450">
+      <c r="A2450" s="0" t="n">
+        <v>2446</v>
+      </c>
+      <c r="B2450" s="0" t="inlineStr">
+        <is>
+          <t>外敌抵御</t>
+        </is>
+      </c>
+    </row>
+    <row r="2451">
+      <c r="A2451" s="0" t="n">
+        <v>2447</v>
+      </c>
+      <c r="B2451" s="0" t="inlineStr">
+        <is>
+          <t>外敌入侵/反攻</t>
+        </is>
+      </c>
+    </row>
+    <row r="2452">
+      <c r="A2452" s="0" t="n">
+        <v>2448</v>
+      </c>
+      <c r="B2452" s="0" t="inlineStr">
+        <is>
+          <t>外敌入侵Loop</t>
+        </is>
+      </c>
+    </row>
+    <row r="2453">
+      <c r="A2453" s="0" t="n">
+        <v>2449</v>
+      </c>
+      <c r="B2453" s="0" t="inlineStr">
+        <is>
+          <t>大江东去浪淘尽，千古风流人物</t>
+        </is>
+      </c>
+    </row>
+    <row r="2454">
+      <c r="A2454" s="0" t="n">
+        <v>2450</v>
+      </c>
+      <c r="B2454" s="0" t="inlineStr">
+        <is>
+          <t>个人押镖,获取丰厚奖励,大厅5级可参与</t>
+        </is>
+      </c>
+    </row>
+    <row r="2455">
+      <c r="A2455" s="0" t="n">
+        <v>2451</v>
+      </c>
+      <c r="B2455" s="0" t="inlineStr">
+        <is>
+          <t>势力成员可以一起押镖,获取海量奖励</t>
+        </is>
+      </c>
+    </row>
+    <row r="2456">
+      <c r="A2456" s="0" t="n">
+        <v>2452</v>
+      </c>
+      <c r="B2456" s="0" t="inlineStr">
+        <is>
+          <t>州府一出，谁与争锋</t>
+        </is>
+      </c>
+    </row>
+    <row r="2457">
+      <c r="A2457" s="0" t="n">
+        <v>2453</v>
+      </c>
+      <c r="B2457" s="0" t="inlineStr">
+        <is>
+          <t>州府争夺,割据一方</t>
+        </is>
+      </c>
+    </row>
+    <row r="2458">
+      <c r="A2458" s="0" t="n">
+        <v>2454</v>
+      </c>
+      <c r="B2458" s="0" t="inlineStr">
+        <is>
+          <t>sdfsfs</t>
+        </is>
+      </c>
+    </row>
+    <row r="2459">
+      <c r="A2459" t="n">
+        <v>2455</v>
+      </c>
+      <c r="B2459" t="inlineStr">
+        <is>
+          <t>sdfsfs2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2460">
+      <c r="A2460" t="n">
+        <v>2456</v>
+      </c>
+      <c r="B2460" t="inlineStr">
+        <is>
+          <t>sdfsfs2xx</t>
+        </is>
+      </c>
+    </row>
+    <row r="2461">
+      <c r="A2461" t="n">
+        <v>2457</v>
+      </c>
+      <c r="B2461" t="inlineStr">
+        <is>
+          <t>sdfsfs2xxcc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2462">
+      <c r="A2462" t="n">
+        <v>2458</v>
+      </c>
+      <c r="B2462" t="inlineStr">
+        <is>
+          <t>sdfsfs2xxcc2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2463">
+      <c r="A2463" t="n">
+        <v>2459</v>
+      </c>
+      <c r="B2463" t="inlineStr">
+        <is>
+          <t>sdfsfs2xxcc2x</t>
+        </is>
+      </c>
+    </row>
+    <row r="2464">
+      <c r="A2464" t="n">
+        <v>2460</v>
+      </c>
+      <c r="B2464" t="inlineStr">
+        <is>
+          <t>sdfsfs2xxcc2xx</t>
         </is>
       </c>
     </row>

--- a/Language.xlsx
+++ b/Language.xlsx
@@ -396,11 +396,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="2"/>
-      <selection activeCell="D2" pane="bottomLeft" sqref="D2"/>
+      <selection activeCell="E5" pane="bottomLeft" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -438,7 +438,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>ja</t>
+          <t>jp</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -484,22 +484,52 @@
       <c r="D3" s="0" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="4" s="2">
-      <c r="A4" t="n">
+      <c r="A4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>黄金</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>黄金2</t>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>aasdd</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>charles</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>charles2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>charles4</t>
         </is>
       </c>
     </row>
